--- a/records/subjects/Experiment_Manifest.xlsx
+++ b/records/subjects/Experiment_Manifest.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,26 +526,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>e1_6.0x8.0_1234_1_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e1_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1234_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>IMG_3070 - Copy.jpeg</t>
+          <t>IMG_3174.jpeg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.5301989150090416</v>
+        <v>0.6505681818181818</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -564,22 +564,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>07:09:2020 14:33:40</t>
+          <t>07:09:2020 15:28:50</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>(41.00639088888889, -81.00722681481481)</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>columns8</t>
+          <t>(41.00639088888889, -81.0072268279321)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -588,17 +583,17 @@
         </is>
       </c>
       <c r="O2" t="n">
-        <v>143.60237</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>30824.07762999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.10616</v>
+        <v>0.03518</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>{"number": 778, "mean_size": 2.035, "median_size": 1.197, "25th_size": 0.78, "27th_size": 2.448}</t>
+          <t>{"number": 316, "mean_size": 1.728, "median_size": 0.895, "25th_size": 0.582, "27th_size": 1.98}</t>
         </is>
       </c>
       <c r="S2" t="inlineStr"/>
@@ -611,26 +606,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>e2_6.0x8.0_1234_2_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e2_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1234_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>IMG_3070.jpeg</t>
+          <t>IMG_3174HorFlip.jpeg</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.5301989150090416</v>
+        <v>0.6505681818181818</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -649,22 +644,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>07:09:2020 14:33:40</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>(41.00639088888889, -81.00722681481481)</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>columns8</t>
+          <t>(None, None)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -673,17 +663,17 @@
         </is>
       </c>
       <c r="O3" t="n">
-        <v>143.60237</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30824.07762999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.10616</v>
+        <v>0.03523</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{"number": 778, "mean_size": 2.035, "median_size": 1.197, "25th_size": 0.78, "27th_size": 2.448}</t>
+          <t>{"number": 312, "mean_size": 1.747, "median_size": 0.879, "25th_size": 0.582, "27th_size": 2.013}</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -696,26 +686,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>e3_6.0x8.0_1234_3_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e3_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1234_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>IMG_3070HorFlip - Copy.jpeg</t>
+          <t>IMG_3174HorVertFlip.jpeg</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5298372513562387</v>
+        <v>0.6477272727272727</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -734,12 +724,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -747,28 +737,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>148.96042</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>30818.71957999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.10622</v>
+        <v>0.0353</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{"number": 785, "mean_size": 2.014, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.398}</t>
+          <t>{"number": 321, "mean_size": 1.716, "median_size": 0.877, "25th_size": 0.585, "27th_size": 1.965}</t>
         </is>
       </c>
       <c r="S4" t="inlineStr"/>
@@ -781,26 +766,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>e4_6.0x8.0_1234_4_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e4_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1234_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>IMG_3070HorFlip.jpeg</t>
+          <t>IMG_3174VertFlip.jpeg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.5298372513562387</v>
+        <v>0.6473721590909091</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -819,12 +804,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -832,28 +817,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>148.96042</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>30818.71957999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.10622</v>
+        <v>0.03527</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{"number": 785, "mean_size": 2.014, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.398}</t>
+          <t>{"number": 314, "mean_size": 1.738, "median_size": 0.879, "25th_size": 0.585, "27th_size": 2.008}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -866,26 +846,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>e5_6.0x8.0_1234_5_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e5_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1234_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>IMG_3070HorVertFlip - Copy.jpeg</t>
+          <t>IMG_3175.jpeg</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5298372513562387</v>
+        <v>0.6931735657225854</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -904,22 +884,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07:09:2020 15:28:55</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>(None, None)</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>columns8</t>
+          <t>(41.00639088888889, -81.0072268279321)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -928,17 +903,17 @@
         </is>
       </c>
       <c r="O6" t="n">
-        <v>143.51171</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30824.16828999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.10617</v>
+        <v>0.0252</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{"number": 777, "mean_size": 2.029, "median_size": 1.198, "25th_size": 0.78, "27th_size": 2.435}</t>
+          <t>{"number": 265, "mean_size": 1.591, "median_size": 0.918, "25th_size": 0.584, "27th_size": 1.735}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
@@ -951,26 +926,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>e6_6.0x8.0_1234_6_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e6_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1234_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>IMG_3070HorVertFlip.jpeg</t>
+          <t>IMG_3175HorFlip.jpeg</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.5298372513562387</v>
+        <v>0.6870007262164125</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -989,12 +964,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1002,28 +977,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>143.51171</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>30824.16828999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.10617</v>
+        <v>0.02523</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{"number": 777, "mean_size": 2.029, "median_size": 1.198, "25th_size": 0.78, "27th_size": 2.435}</t>
+          <t>{"number": 267, "mean_size": 1.572, "median_size": 0.913, "25th_size": 0.564, "27th_size": 1.722}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1036,26 +1006,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>e7_6.0x8.0_1234_7_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e7_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1234_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>IMG_3070VertFlip - Copy.jpeg</t>
+          <t>IMG_3175HorVertFlip.jpeg</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5301989150090416</v>
+        <v>0.6877269426289034</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1074,12 +1044,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1087,28 +1057,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>139.87939</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>30827.80060999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1061</v>
+        <v>0.02547</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{"number": 778, "mean_size": 2.033, "median_size": 1.226, "25th_size": 0.78, "27th_size": 2.422}</t>
+          <t>{"number": 262, "mean_size": 1.591, "median_size": 0.889, "25th_size": 0.563, "27th_size": 1.747}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
@@ -1121,26 +1086,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>e8_6.0x8.0_1234_8_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e8_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1234_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>IMG_3070VertFlip.jpeg</t>
+          <t>IMG_3175VertFlip.jpeg</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.5301989150090416</v>
+        <v>0.6870007262164125</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1159,12 +1124,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1172,28 +1137,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>139.87939</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>30827.80060999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1061</v>
+        <v>0.02527</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{"number": 778, "mean_size": 2.033, "median_size": 1.226, "25th_size": 0.78, "27th_size": 2.422}</t>
+          <t>{"number": 261, "mean_size": 1.585, "median_size": 0.886, "25th_size": 0.564, "27th_size": 1.734}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -1206,26 +1166,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>e9_6.0x8.0_4321_1_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e9_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4321_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>IMG_3070 - Copy.jpeg</t>
+          <t>IMG_3176.jpeg</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5301989150090416</v>
+        <v>0.6973495702005731</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1244,22 +1204,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>07:09:2020 14:33:40</t>
+          <t>07:09:2020 15:29:05</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>(41.00639088888889, -81.00722681481481)</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>columns8</t>
+          <t>(41.006390880401234, -81.00750004398148)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1268,17 +1223,17 @@
         </is>
       </c>
       <c r="O10" t="n">
-        <v>143.60237</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>30824.07762999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.10616</v>
+        <v>0.02832</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{"number": 778, "mean_size": 2.035, "median_size": 1.197, "25th_size": 0.78, "27th_size": 2.448}</t>
+          <t>{"number": 266, "mean_size": 1.706, "median_size": 0.999, "25th_size": 0.626, "27th_size": 1.89}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -1291,26 +1246,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>e10_6.0x8.0_4321_2_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e10_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4321_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>IMG_3070.jpeg</t>
+          <t>IMG_3176HorFlip.jpeg</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.5301989150090416</v>
+        <v>0.6969914040114613</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1329,22 +1284,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>07:09:2020 14:33:40</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>(41.00639088888889, -81.00722681481481)</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>columns8</t>
+          <t>(None, None)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1353,17 +1303,17 @@
         </is>
       </c>
       <c r="O11" t="n">
-        <v>143.60237</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>30824.07762999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.10616</v>
+        <v>0.02835</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{"number": 778, "mean_size": 2.035, "median_size": 1.197, "25th_size": 0.78, "27th_size": 2.448}</t>
+          <t>{"number": 269, "mean_size": 1.69, "median_size": 0.989, "25th_size": 0.627, "27th_size": 1.872}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -1376,26 +1326,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>e11_6.0x8.0_4321_3_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e11_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>4321_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>IMG_3070HorFlip - Copy.jpeg</t>
+          <t>IMG_3176HorVertFlip.jpeg</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.5298372513562387</v>
+        <v>0.6912607449856734</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1414,12 +1364,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1427,28 +1377,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>148.96042</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>30818.71957999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.10622</v>
+        <v>0.02838</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{"number": 785, "mean_size": 2.014, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.398}</t>
+          <t>{"number": 272, "mean_size": 1.673, "median_size": 0.987, "25th_size": 0.632, "27th_size": 1.836}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -1461,26 +1406,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>e12_6.0x8.0_4321_4_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e12_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>4321_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IMG_3070HorFlip.jpeg</t>
+          <t>IMG_3176VertFlip.jpeg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5298372513562387</v>
+        <v>0.6905444126074498</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1499,12 +1444,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1512,28 +1457,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>148.96042</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>30818.71957999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.10622</v>
+        <v>0.02841</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{"number": 785, "mean_size": 2.014, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.398}</t>
+          <t>{"number": 272, "mean_size": 1.671, "median_size": 0.949, "25th_size": 0.632, "27th_size": 1.82}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -1546,26 +1486,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>e13_6.0x8.0_4321_5_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e13_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4321_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>IMG_3070HorVertFlip - Copy.jpeg</t>
+          <t>IMG_3177.jpeg</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5298372513562387</v>
+        <v>0.7108782074448862</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1584,22 +1524,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07:09:2020 15:29:29</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>(None, None)</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>columns8</t>
+          <t>(41.00639088657407, -81.00750002700616)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1608,17 +1543,17 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>143.51171</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>30824.16828999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.10617</v>
+        <v>0.02801</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{"number": 777, "mean_size": 2.029, "median_size": 1.198, "25th_size": 0.78, "27th_size": 2.435}</t>
+          <t>{"number": 280, "mean_size": 1.598, "median_size": 0.898, "25th_size": 0.62, "27th_size": 1.739}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
@@ -1631,26 +1566,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>e14_6.0x8.0_4321_6_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e14_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4321_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>IMG_3070HorVertFlip.jpeg</t>
+          <t>IMG_3177HorFlip.jpeg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.5298372513562387</v>
+        <v>0.7065413805565595</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1669,12 +1604,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1682,28 +1617,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>143.51171</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>30824.16828999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.10617</v>
+        <v>0.02802</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{"number": 777, "mean_size": 2.029, "median_size": 1.198, "25th_size": 0.78, "27th_size": 2.435}</t>
+          <t>{"number": 276, "mean_size": 1.61, "median_size": 0.935, "25th_size": 0.624, "27th_size": 1.77}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
@@ -1716,26 +1646,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>e15_6.0x8.0_4321_7_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e15_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4321_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IMG_3070VertFlip - Copy.jpeg</t>
+          <t>IMG_3177HorVertFlip.jpeg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.5301989150090416</v>
+        <v>0.7076255872786411</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1754,12 +1684,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>11519-20</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>06-16-21</t>
+          <t>07-09-20</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1767,28 +1697,23 @@
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr">
         <is>
           <t>{"height": 6, "width": 8}</t>
         </is>
       </c>
       <c r="O16" t="n">
-        <v>139.87939</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>30827.80060999999</v>
+        <v>30967.67999999999</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.1061</v>
+        <v>0.02808</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{"number": 778, "mean_size": 2.033, "median_size": 1.226, "25th_size": 0.78, "27th_size": 2.422}</t>
+          <t>{"number": 280, "mean_size": 1.594, "median_size": 0.934, "25th_size": 0.623, "27th_size": 1.75}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
@@ -1801,82 +1726,7117 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>e16_6.0x8.0_4321_8_1__UnitedStoneInternational_Cleveland_OH.jpeg</t>
+          <t>e16_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4321_DallasWhite_c8</t>
+          <t>11519-20_DallasWhite_unknown</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>06-16-21_6x8_UnitedStoneInternational_Cleveland_OH</t>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>IMG_3177VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7061799783158655</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.02803</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{"number": 280, "mean_size": 1.592, "median_size": 0.897, "25th_size": 0.622, "27th_size": 1.718}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>e17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>e17_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.7107156380159031</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:29:35</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>(41.006390883487654, -81.00750006712963)</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.02283</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{"number": 300, "mean_size": 1.512, "median_size": 0.878, "25th_size": 0.568, "27th_size": 1.787}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>e18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>e18_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>IMG_3178HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7054146156758804</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.02289</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{"number": 300, "mean_size": 1.514, "median_size": 0.859, "25th_size": 0.573, "27th_size": 1.801}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>e19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>e19_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>IMG_3178HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.7057932601287391</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.02297</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{"number": 305, "mean_size": 1.499, "median_size": 0.858, "25th_size": 0.572, "27th_size": 1.773}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>e20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>e20_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>IMG_3178VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7050359712230215</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.02284</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{"number": 306, "mean_size": 1.489, "median_size": 0.859, "25th_size": 0.573, "27th_size": 1.777}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>e21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>e21_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>0.7132046916382898</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:29:46</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>(41.00639089197531, -81.00750001388889)</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.02807</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{"number": 282, "mean_size": 1.657, "median_size": 0.962, "25th_size": 0.647, "27th_size": 1.899}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>e22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>e22_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>IMG_3179HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7079076806659099</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.02828</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{"number": 280, "mean_size": 1.666, "median_size": 0.951, "25th_size": 0.652, "27th_size": 1.883}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>e23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>e23_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>IMG_3179HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.7086643965191071</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.02815</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{"number": 282, "mean_size": 1.663, "median_size": 0.984, "25th_size": 0.651, "27th_size": 1.903}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>e24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>e24_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>IMG_3179VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.7075293227393114</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.0283</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{"number": 284, "mean_size": 1.652, "median_size": 0.938, "25th_size": 0.652, "27th_size": 1.89}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>e25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>e25_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>0.7420202778820879</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:29:53</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>(41.0063908912037, -81.0075000779321)</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{"number": 282, "mean_size": 1.495, "median_size": 0.821, "25th_size": 0.54, "27th_size": 1.553}</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>e26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>e26_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>IMG_3180HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0.7315058205031919</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.02234</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>{"number": 268, "mean_size": 1.541, "median_size": 0.851, "25th_size": 0.548, "27th_size": 1.608}</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>e27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>e27_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>IMG_3180HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.7330078858430342</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.02252</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>{"number": 273, "mean_size": 1.528, "median_size": 0.831, "25th_size": 0.547, "27th_size": 1.605}</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>e28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>e28_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>IMG_3180VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.7431468268869695</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.02259</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>{"number": 282, "mean_size": 1.497, "median_size": 0.807, "25th_size": 0.539, "27th_size": 1.578}</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>e29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>e29_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>IMG_3070.jpeg</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5301989150090416</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:33:40</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>(41.00639088888889, -81.00722681481481)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>143.60237</v>
+      </c>
+      <c r="P30" t="n">
+        <v>30824.07762999999</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.10616</v>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>{"number": 778, "mean_size": 2.035, "median_size": 1.197, "25th_size": 0.78, "27th_size": 2.448}</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>e30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>e30_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>IMG_3070HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.5298372513562387</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>148.96042</v>
+      </c>
+      <c r="P31" t="n">
+        <v>30818.71957999999</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.10622</v>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>{"number": 785, "mean_size": 2.014, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.398}</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>e31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>e31_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>IMG_3070HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5298372513562387</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>143.51171</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30824.16828999999</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.10617</v>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>{"number": 777, "mean_size": 2.029, "median_size": 1.198, "25th_size": 0.78, "27th_size": 2.435}</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>e32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>e32_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>IMG_3070VertFlip.jpeg</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F33" t="n">
         <v>0.5301989150090416</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>UnitedStoneInternational</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Cleveland, OH</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>DallasWhite</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>06-16-21</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>(None, None)</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>columns8</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>{"height": 6, "width": 8}</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
         <v>139.87939</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P33" t="n">
         <v>30827.80060999999</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q33" t="n">
         <v>0.1061</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>{"number": 778, "mean_size": 2.033, "median_size": 1.226, "25th_size": 0.78, "27th_size": 2.422}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>e33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>e33_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>IMG_3071.jpeg</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.5446043165467626</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:33:48</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>(41.00639087962963, -81.00722683410494)</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>98.56932</v>
+      </c>
+      <c r="P34" t="n">
+        <v>30869.11067999999</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.08734</v>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>{"number": 808, "mean_size": 1.883, "median_size": 1.208, "25th_size": 0.805, "27th_size": 2.254}</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>e34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>e34_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>IMG_3071HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>95.83297</v>
+      </c>
+      <c r="P35" t="n">
+        <v>30871.84702999999</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.08724999999999999</v>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>{"number": 820, "mean_size": 1.858, "median_size": 1.21, "25th_size": 0.763, "27th_size": 2.205}</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>e35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>e35_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>IMG_3071HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>98.31514</v>
+      </c>
+      <c r="P36" t="n">
+        <v>30869.36485999999</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.08734</v>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>{"number": 806, "mean_size": 1.885, "median_size": 1.21, "25th_size": 0.8, "27th_size": 2.264}</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>e36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>e36_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>IMG_3071VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>96.82991</v>
+      </c>
+      <c r="P37" t="n">
+        <v>30870.85008999999</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.08717</v>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>{"number": 800, "mean_size": 1.897, "median_size": 1.225, "25th_size": 0.807, "27th_size": 2.273}</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>e37</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>e37_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>IMG_3072.jpeg</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5559593023255814</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:33:56</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>(41.006390883487654, -81.00750007098765)</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>130.59467</v>
+      </c>
+      <c r="P38" t="n">
+        <v>30837.08532999999</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>{"number": 709, "mean_size": 2.235, "median_size": 1.265, "25th_size": 0.797, "27th_size": 2.489}</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>e38</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>e38_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>IMG_3072HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.5563226744186046</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>136.23562</v>
+      </c>
+      <c r="P39" t="n">
+        <v>30831.44437999999</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.13458</v>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>{"number": 702, "mean_size": 2.256, "median_size": 1.257, "25th_size": 0.777, "27th_size": 2.519}</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>e39</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>e39_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>IMG_3072HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.5541424418604651</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>132.86558</v>
+      </c>
+      <c r="P40" t="n">
+        <v>30834.81441999999</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.13462</v>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>{"number": 701, "mean_size": 2.258, "median_size": 1.249, "25th_size": 0.799, "27th_size": 2.546}</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>e40</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>e40_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>IMG_3072VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5545058139534884</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>136.49651</v>
+      </c>
+      <c r="P41" t="n">
+        <v>30831.18348999999</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.13457</v>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>{"number": 700, "mean_size": 2.259, "median_size": 1.274, "25th_size": 0.79, "27th_size": 2.516}</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>e41</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>e41_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>IMG_3073.jpeg</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.6909851301115242</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:34:06</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>(41.00639088966049, -81.00750005015432)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>5.8979</v>
+      </c>
+      <c r="P42" t="n">
+        <v>30961.78209999999</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.10498</v>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>{"number": 751, "mean_size": 2.082, "median_size": 1.36, "25th_size": 0.82, "27th_size": 2.5}</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>e42</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>e42_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>IMG_3073HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.6923791821561338</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>5.69633</v>
+      </c>
+      <c r="P43" t="n">
+        <v>30961.98366999999</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>{"number": 755, "mean_size": 2.074, "median_size": 1.33, "25th_size": 0.818, "27th_size": 2.505}</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>e43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>e43_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>IMG_3073HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.6895910780669146</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>7.46154</v>
+      </c>
+      <c r="P44" t="n">
+        <v>30960.21845999999</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.10486</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>{"number": 744, "mean_size": 2.101, "median_size": 1.369, "25th_size": 0.822, "27th_size": 2.528}</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>e44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>e44_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>IMG_3073VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.6895910780669146</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>6.28562</v>
+      </c>
+      <c r="P45" t="n">
+        <v>30961.39437999999</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.10482</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>{"number": 745, "mean_size": 2.095, "median_size": 1.379, "25th_size": 0.822, "27th_size": 2.5}</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>e45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>e45_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>IMG_3074.jpeg</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.7578632051922117</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:34:22</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>(41.006390874999994, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0.11118</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>{"number": 758, "mean_size": 2.102, "median_size": 1.211, "25th_size": 0.803, "27th_size": 2.446}</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>e46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>e46_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>IMG_3074HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.7538691962056915</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.11159</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>{"number": 749, "mean_size": 2.125, "median_size": 1.254, "25th_size": 0.799, "27th_size": 2.47}</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>e47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>e47_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>IMG_3074HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.7543684473290065</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.11131</v>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>{"number": 755, "mean_size": 2.111, "median_size": 1.236, "25th_size": 0.756, "27th_size": 2.44}</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>e48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>e48_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>IMG_3074VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7548676984523215</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0.11151</v>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>{"number": 753, "mean_size": 2.116, "median_size": 1.238, "25th_size": 0.798, "27th_size": 2.457}</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>e49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>e49_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>IMG_3075.jpeg</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.7760598503740649</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:34:29</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>(41.00639087962963, -81.00722684490741)</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.08153000000000001</v>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>{"number": 805, "mean_size": 1.77, "median_size": 1.175, "25th_size": 0.784, "27th_size": 2.028}</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>e50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>e50_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>IMG_3075HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.771571072319202</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.08161</v>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>{"number": 798, "mean_size": 1.782, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.04}</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>e51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>e51_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>IMG_3075HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.773067331670823</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.08160000000000001</v>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>{"number": 803, "mean_size": 1.777, "median_size": 1.18, "25th_size": 0.787, "27th_size": 2.016}</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>e52</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>e52_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>IMG_3075VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.771571072319202</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>6.74488</v>
+      </c>
+      <c r="P53" t="n">
+        <v>30960.93511999999</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0.08151</v>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>{"number": 797, "mean_size": 1.785, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.071}</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>e53</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>e53_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>IMG_3076.jpeg</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9192660550458716</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:34:40</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>(41.00639089429012, -81.00750005401234)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>5.58794</v>
+      </c>
+      <c r="P54" t="n">
+        <v>30962.09205999999</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>{"number": 831, "mean_size": 2.199, "median_size": 1.318, "25th_size": 0.811, "27th_size": 2.479}</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>e54</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>e54_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>IMG_3076HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9155963302752294</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.13591</v>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>{"number": 839, "mean_size": 2.182, "median_size": 1.273, "25th_size": 0.806, "27th_size": 2.452}</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>e55</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>e55_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>IMG_3076HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9168195718654434</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>6.63076</v>
+      </c>
+      <c r="P56" t="n">
+        <v>30961.04923999999</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.1369</v>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>{"number": 830, "mean_size": 2.198, "median_size": 1.322, "25th_size": 0.813, "27th_size": 2.454}</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>e56</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>e56_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>IMG_3076VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9155963302752294</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>{"number": 836, "mean_size": 2.192, "median_size": 1.323, "25th_size": 0.814, "27th_size": 2.481}</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>e57</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>e57_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>IMG_3077.jpeg</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0.6625310173697271</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:35:02</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>(41.00639086651234, -81.00750002854937)</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0.11319</v>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>{"number": 787, "mean_size": 2.115, "median_size": 1.269, "25th_size": 0.761, "27th_size": 2.41}</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>e58</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>e58_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>IMG_3077HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6604631927212572</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.1133</v>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>{"number": 793, "mean_size": 2.102, "median_size": 1.245, "25th_size": 0.763, "27th_size": 2.422}</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>e59</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>e59_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>IMG_3077HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0.6608767576509512</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>{"number": 793, "mean_size": 2.098, "median_size": 1.244, "25th_size": 0.763, "27th_size": 2.391}</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>e60</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>e60_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>IMG_3077VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>0.6637717121588089</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>30967.67999999999</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.11321</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>{"number": 788, "mean_size": 2.112, "median_size": 1.271, "25th_size": 0.774, "27th_size": 2.425}</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>e61</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>e61_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>IMG_3078.jpeg</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5612391930835735</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:35:11</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>(41.00639089429012, -81.00750005246913)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>170.55026</v>
+      </c>
+      <c r="P62" t="n">
+        <v>30797.12973999999</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.11499</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>{"number": 759, "mean_size": 1.991, "median_size": 1.125, "25th_size": 0.734, "27th_size": 2.126}</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>e62</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>e62_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>IMG_3078HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0.5605187319884726</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>169.4589</v>
+      </c>
+      <c r="P63" t="n">
+        <v>30798.22109999999</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.11502</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>{"number": 762, "mean_size": 1.984, "median_size": 1.126, "25th_size": 0.728, "27th_size": 2.155}</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>e63</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>e63_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>IMG_3078HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0.5594380403458213</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>172.6999</v>
+      </c>
+      <c r="P64" t="n">
+        <v>30794.98009999999</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>{"number": 763, "mean_size": 1.987, "median_size": 1.129, "25th_size": 0.736, "27th_size": 2.119}</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>e64</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>e64_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>IMG_3078VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0.5597982708933718</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>167.79873</v>
+      </c>
+      <c r="P65" t="n">
+        <v>30799.88126999999</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>{"number": 759, "mean_size": 1.992, "median_size": 1.163, "25th_size": 0.776, "27th_size": 2.112}</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>e65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>e65_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>IMG_3080.jpeg</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0.5870722433460076</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:35:39</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>(41.00639088966049, -81.00750002854937)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>64.51557</v>
+      </c>
+      <c r="P66" t="n">
+        <v>30903.16442999999</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.11372</v>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>{"number": 814, "mean_size": 2.091, "median_size": 1.27, "25th_size": 0.774, "27th_size": 2.349}</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>e66</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>e66_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>IMG_3080HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0.5863117870722433</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>60.27771</v>
+      </c>
+      <c r="P67" t="n">
+        <v>30907.40228999999</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0.11384</v>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>{"number": 820, "mean_size": 2.09, "median_size": 1.26, "25th_size": 0.789, "27th_size": 2.372}</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>e67</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>e67_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>IMG_3080HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0.5863117870722433</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>64.57558</v>
+      </c>
+      <c r="P68" t="n">
+        <v>30903.10441999999</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.11385</v>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>{"number": 816, "mean_size": 2.099, "median_size": 1.285, "25th_size": 0.791, "27th_size": 2.372}</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>e68</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>e68_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>IMG_3080VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0.5866920152091255</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>64.19925000000001</v>
+      </c>
+      <c r="P69" t="n">
+        <v>30903.48074999999</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.11392</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>{"number": 824, "mean_size": 2.085, "median_size": 1.273, "25th_size": 0.79, "27th_size": 2.37}</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>e69</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>e69_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>IMG_3081.jpeg</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0.547244094488189</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:35:53</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>(41.00639088580247, -81.00750002006173)</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>112.82844</v>
+      </c>
+      <c r="P70" t="n">
+        <v>30854.85155999999</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>{"number": 821, "mean_size": 1.996, "median_size": 1.146, "25th_size": 0.772, "27th_size": 2.243}</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>e70</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>e70_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>IMG_3081HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0.5458124552612742</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>116.95646</v>
+      </c>
+      <c r="P71" t="n">
+        <v>30850.72353999999</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.11659</v>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>{"number": 822, "mean_size": 1.999, "median_size": 1.149, "25th_size": 0.78, "27th_size": 2.251}</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>e71</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>e71_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>IMG_3081HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0.5468861846814602</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>112.38428</v>
+      </c>
+      <c r="P72" t="n">
+        <v>30855.29571999999</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.11641</v>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>{"number": 827, "mean_size": 1.991, "median_size": 1.147, "25th_size": 0.789, "27th_size": 2.214}</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>e72</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>e72_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>IMG_3081VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0.5461703650680029</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>115.78091</v>
+      </c>
+      <c r="P73" t="n">
+        <v>30851.89908999999</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.11632</v>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>{"number": 820, "mean_size": 1.996, "median_size": 1.148, "25th_size": 0.777, "27th_size": 2.195}</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>e73</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>e73_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>IMG_3082.jpeg</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0.6332094175960347</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:08</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>(41.006390881172834, -81.00722684876544)</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>25.22617</v>
+      </c>
+      <c r="P74" t="n">
+        <v>30942.45382999999</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>{"number": 848, "mean_size": 1.94, "median_size": 1.155, "25th_size": 0.793, "27th_size": 2.158}</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>e74</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>e74_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>IMG_3082HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0.6319702602230484</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>25.87089</v>
+      </c>
+      <c r="P75" t="n">
+        <v>30941.80910999999</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0.11111</v>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>{"number": 856, "mean_size": 1.93, "median_size": 1.163, "25th_size": 0.797, "27th_size": 2.15}</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>e75</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>e75_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>IMG_3082HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0.6323833126807105</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>27.5216</v>
+      </c>
+      <c r="P76" t="n">
+        <v>30940.15839999999</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0.11097</v>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>{"number": 855, "mean_size": 1.933, "median_size": 1.171, "25th_size": 0.796, "27th_size": 2.165}</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>e76</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>e76_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>IMG_3082VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0.6319702602230484</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>28.24218</v>
+      </c>
+      <c r="P77" t="n">
+        <v>30939.43781999999</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0.11107</v>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>{"number": 856, "mean_size": 1.93, "median_size": 1.145, "25th_size": 0.797, "27th_size": 2.145}</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>e77</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>e77_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>IMG_3083.jpeg</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0.597103601930932</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:25</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>(41.00639088811728, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>4.68438</v>
+      </c>
+      <c r="P78" t="n">
+        <v>30962.99561999999</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0.10671</v>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>{"number": 750, "mean_size": 1.999, "median_size": 1.232, "25th_size": 0.758, "27th_size": 2.276}</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>e78</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>e78_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>IMG_3083HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0.5959896026735982</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>6.23014</v>
+      </c>
+      <c r="P79" t="n">
+        <v>30961.44985999999</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0.10671</v>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>{"number": 739, "mean_size": 2.024, "median_size": 1.234, "25th_size": 0.761, "27th_size": 2.303}</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>e79</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>e79_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>IMG_3083HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0.5963609357593762</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>5.98826</v>
+      </c>
+      <c r="P80" t="n">
+        <v>30961.69173999999</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0.10667</v>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>{"number": 747, "mean_size": 2.005, "median_size": 1.234, "25th_size": 0.759, "27th_size": 2.289}</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>e80</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>e80_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>IMG_3083VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0.5967322688451541</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>5.2838</v>
+      </c>
+      <c r="P81" t="n">
+        <v>30962.39619999999</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0.10679</v>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>{"number": 753, "mean_size": 1.997, "median_size": 1.226, "25th_size": 0.759, "27th_size": 2.277}</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>e81</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>e81_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>IMG_3084.jpeg</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0.5695915279878971</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:31</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>(41.00639088811728, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
+        <v>61.80637</v>
+      </c>
+      <c r="P82" t="n">
+        <v>30905.87362999999</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0.10676</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>{"number": 745, "mean_size": 2.047, "median_size": 1.242, "25th_size": 0.81, "27th_size": 2.362}</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>e82</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>e82_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>IMG_3084HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0.5677004538577912</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
+        <v>55.73974</v>
+      </c>
+      <c r="P83" t="n">
+        <v>30911.94025999999</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0.10672</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>{"number": 747, "mean_size": 2.045, "median_size": 1.218, "25th_size": 0.812, "27th_size": 2.343}</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>e83</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>e83_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>IMG_3084HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0.5684568835098336</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>54.34744</v>
+      </c>
+      <c r="P84" t="n">
+        <v>30913.33255999999</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0.10663</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>{"number": 739, "mean_size": 2.061, "median_size": 1.223, "25th_size": 0.811, "27th_size": 2.363}</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>e84</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>e84_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>IMG_3084VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0.5680786686838124</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>58.8879</v>
+      </c>
+      <c r="P85" t="n">
+        <v>30908.79209999999</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0.10656</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>{"number": 742, "mean_size": 2.057, "median_size": 1.218, "25th_size": 0.812, "27th_size": 2.39}</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>e85</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>e85_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>IMG_3085.jpeg</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0.529989094874591</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:41</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>(41.00639088271605, -81.00722684027778)</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>49.86008</v>
+      </c>
+      <c r="P86" t="n">
+        <v>30917.81991999999</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0.1151</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>{"number": 750, "mean_size": 2.157, "median_size": 1.359, "25th_size": 0.809, "27th_size": 2.456}</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>e86</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>e86_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>IMG_3085HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>48.04672</v>
+      </c>
+      <c r="P87" t="n">
+        <v>30919.63327999999</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0.11507</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>{"number": 765, "mean_size": 2.131, "median_size": 1.339, "25th_size": 0.784, "27th_size": 2.46}</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>e87</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>e87_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>IMG_3085HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
+        <v>53.74143</v>
+      </c>
+      <c r="P88" t="n">
+        <v>30913.93856999999</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0.11503</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>{"number": 760, "mean_size": 2.14, "median_size": 1.36, "25th_size": 0.784, "27th_size": 2.447}</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>e88</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>e88_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>IMG_3085VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
+        <v>50.26771</v>
+      </c>
+      <c r="P89" t="n">
+        <v>30917.41228999999</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0.11519</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>{"number": 765, "mean_size": 2.125, "median_size": 1.317, "25th_size": 0.784, "27th_size": 2.432}</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>e89</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>e89_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>IMG_3086.jpeg</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0.576852193144121</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:52</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>(41.006390883487654, -81.00750004166666)</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O90" t="n">
+        <v>225.13831</v>
+      </c>
+      <c r="P90" t="n">
+        <v>30742.54168999999</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0.09671</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>{"number": 733, "mean_size": 2.012, "median_size": 1.229, "25th_size": 0.779, "27th_size": 2.346}</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>e90</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>e90_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>IMG_3086HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O91" t="n">
+        <v>226.66541</v>
+      </c>
+      <c r="P91" t="n">
+        <v>30741.01458999999</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0.09687</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>{"number": 728, "mean_size": 2.02, "median_size": 1.218, "25th_size": 0.78, "27th_size": 2.369}</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>e91</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>e91_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>IMG_3086HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O92" t="n">
+        <v>220.25626</v>
+      </c>
+      <c r="P92" t="n">
+        <v>30747.42373999999</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0.09678</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>{"number": 725, "mean_size": 2.026, "median_size": 1.238, "25th_size": 0.78, "27th_size": 2.387}</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>e92</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>e92_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>IMG_3086VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
+        <v>220.5696</v>
+      </c>
+      <c r="P93" t="n">
+        <v>30747.11039999999</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0.09678</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>{"number": 733, "mean_size": 2.006, "median_size": 1.238, "25th_size": 0.78, "27th_size": 2.335}</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>e93</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>e93_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>IMG_3088.jpeg</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0.5461069250089702</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:37:07</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>(41.00639088811728, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
+        <v>201.58876</v>
+      </c>
+      <c r="P94" t="n">
+        <v>30766.09123999999</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0.11737</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>{"number": 686, "mean_size": 2.188, "median_size": 1.306, "25th_size": 0.792, "27th_size": 2.476}</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>e94</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>e94_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>IMG_3088HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0.545389307499103</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>201.65718</v>
+      </c>
+      <c r="P95" t="n">
+        <v>30766.02281999999</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0.11665</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>{"number": 681, "mean_size": 2.206, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.503}</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>e95</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>e95_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>IMG_3088HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0.545389307499103</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>197.76678</v>
+      </c>
+      <c r="P96" t="n">
+        <v>30769.91321999999</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0.11659</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>{"number": 683, "mean_size": 2.203, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.52}</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>e96</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>e96_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>IMG_3088VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0.5450304987441693</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O97" t="n">
+        <v>194.2626</v>
+      </c>
+      <c r="P97" t="n">
+        <v>30773.41739999999</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0.11645</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>{"number": 687, "mean_size": 2.189, "median_size": 1.304, "25th_size": 0.803, "27th_size": 2.515}</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>e97</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>e97_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>IMG_3089.jpeg</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0.5865877712031559</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:37:19</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>(41.00639087654321, -81.00722684490741)</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
+        <v>49.00565</v>
+      </c>
+      <c r="P98" t="n">
+        <v>30918.67434999999</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.11425</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>{"number": 788, "mean_size": 2.109, "median_size": 1.23, "25th_size": 0.818, "27th_size": 2.44}</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>e98</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>e98_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>IMG_3089HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
+        <v>48.91918</v>
+      </c>
+      <c r="P99" t="n">
+        <v>30918.76081999999</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0.11432</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>{"number": 787, "mean_size": 2.113, "median_size": 1.243, "25th_size": 0.812, "27th_size": 2.462}</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>e99</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>e99_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>IMG_3089HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0.5857988165680473</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>48.45842</v>
+      </c>
+      <c r="P100" t="n">
+        <v>30919.22157999999</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.11432</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>{"number": 790, "mean_size": 2.103, "median_size": 1.241, "25th_size": 0.821, "27th_size": 2.431}</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>e100</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>e100_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>IMG_3089VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>49.56953</v>
+      </c>
+      <c r="P101" t="n">
+        <v>30918.11046999999</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0.11428</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>{"number": 789, "mean_size": 2.105, "median_size": 1.234, "25th_size": 0.814, "27th_size": 2.448}</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>e101</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>e101_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>IMG_3091.jpeg</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0.5603726262988177</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:37:40</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>(41.00639088657407, -81.0075000030864)</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
+        <v>151.96324</v>
+      </c>
+      <c r="P102" t="n">
+        <v>30815.71675999999</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.09279999999999999</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>{"number": 804, "mean_size": 1.879, "median_size": 1.22, "25th_size": 0.78, "27th_size": 2.231}</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>e102</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>e102_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>IMG_3091HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0.5600143317807238</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
+        <v>150.41319</v>
+      </c>
+      <c r="P103" t="n">
+        <v>30817.26680999999</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.09271</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>{"number": 807, "mean_size": 1.877, "median_size": 1.228, "25th_size": 0.78, "27th_size": 2.187}</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>e103</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>e103_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>IMG_3091HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0.5596560372626299</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
+        <v>128.94929</v>
+      </c>
+      <c r="P104" t="n">
+        <v>30838.73070999999</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.09276</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>{"number": 819, "mean_size": 1.853, "median_size": 1.22, "25th_size": 0.781, "27th_size": 2.142}</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>e104</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>e104_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>IMG_3091VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0.5596560372626299</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
+        <v>144.85614</v>
+      </c>
+      <c r="P105" t="n">
+        <v>30822.82385999999</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.09274</v>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>{"number": 814, "mean_size": 1.863, "median_size": 1.217, "25th_size": 0.781, "27th_size": 2.152}</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/records/subjects/Experiment_Manifest.xlsx
+++ b/records/subjects/Experiment_Manifest.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +596,6 @@
           <t>{"number": 316, "mean_size": 1.728, "median_size": 0.895, "25th_size": 0.582, "27th_size": 1.98}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -676,7 +675,6 @@
           <t>{"number": 312, "mean_size": 1.747, "median_size": 0.879, "25th_size": 0.582, "27th_size": 2.013}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -756,7 +754,6 @@
           <t>{"number": 321, "mean_size": 1.716, "median_size": 0.877, "25th_size": 0.585, "27th_size": 1.965}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -836,7 +833,6 @@
           <t>{"number": 314, "mean_size": 1.738, "median_size": 0.879, "25th_size": 0.585, "27th_size": 2.008}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -916,7 +912,6 @@
           <t>{"number": 265, "mean_size": 1.591, "median_size": 0.918, "25th_size": 0.584, "27th_size": 1.735}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -996,7 +991,6 @@
           <t>{"number": 267, "mean_size": 1.572, "median_size": 0.913, "25th_size": 0.564, "27th_size": 1.722}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1076,7 +1070,6 @@
           <t>{"number": 262, "mean_size": 1.591, "median_size": 0.889, "25th_size": 0.563, "27th_size": 1.747}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1156,7 +1149,6 @@
           <t>{"number": 261, "mean_size": 1.585, "median_size": 0.886, "25th_size": 0.564, "27th_size": 1.734}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1236,7 +1228,6 @@
           <t>{"number": 266, "mean_size": 1.706, "median_size": 0.999, "25th_size": 0.626, "27th_size": 1.89}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1316,7 +1307,6 @@
           <t>{"number": 269, "mean_size": 1.69, "median_size": 0.989, "25th_size": 0.627, "27th_size": 1.872}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1396,7 +1386,6 @@
           <t>{"number": 272, "mean_size": 1.673, "median_size": 0.987, "25th_size": 0.632, "27th_size": 1.836}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1476,7 +1465,6 @@
           <t>{"number": 272, "mean_size": 1.671, "median_size": 0.949, "25th_size": 0.632, "27th_size": 1.82}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1556,7 +1544,6 @@
           <t>{"number": 280, "mean_size": 1.598, "median_size": 0.898, "25th_size": 0.62, "27th_size": 1.739}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1636,7 +1623,6 @@
           <t>{"number": 276, "mean_size": 1.61, "median_size": 0.935, "25th_size": 0.624, "27th_size": 1.77}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1716,7 +1702,6 @@
           <t>{"number": 280, "mean_size": 1.594, "median_size": 0.934, "25th_size": 0.623, "27th_size": 1.75}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1796,7 +1781,6 @@
           <t>{"number": 280, "mean_size": 1.592, "median_size": 0.897, "25th_size": 0.622, "27th_size": 1.718}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1876,7 +1860,6 @@
           <t>{"number": 300, "mean_size": 1.512, "median_size": 0.878, "25th_size": 0.568, "27th_size": 1.787}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1956,7 +1939,6 @@
           <t>{"number": 300, "mean_size": 1.514, "median_size": 0.859, "25th_size": 0.573, "27th_size": 1.801}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2036,7 +2018,6 @@
           <t>{"number": 305, "mean_size": 1.499, "median_size": 0.858, "25th_size": 0.572, "27th_size": 1.773}</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2116,7 +2097,6 @@
           <t>{"number": 306, "mean_size": 1.489, "median_size": 0.859, "25th_size": 0.573, "27th_size": 1.777}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2196,7 +2176,6 @@
           <t>{"number": 282, "mean_size": 1.657, "median_size": 0.962, "25th_size": 0.647, "27th_size": 1.899}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2276,7 +2255,6 @@
           <t>{"number": 280, "mean_size": 1.666, "median_size": 0.951, "25th_size": 0.652, "27th_size": 1.883}</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2356,7 +2334,6 @@
           <t>{"number": 282, "mean_size": 1.663, "median_size": 0.984, "25th_size": 0.651, "27th_size": 1.903}</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2436,7 +2413,6 @@
           <t>{"number": 284, "mean_size": 1.652, "median_size": 0.938, "25th_size": 0.652, "27th_size": 1.89}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2516,7 +2492,6 @@
           <t>{"number": 282, "mean_size": 1.495, "median_size": 0.821, "25th_size": 0.54, "27th_size": 1.553}</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2596,7 +2571,6 @@
           <t>{"number": 268, "mean_size": 1.541, "median_size": 0.851, "25th_size": 0.548, "27th_size": 1.608}</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2676,7 +2650,6 @@
           <t>{"number": 273, "mean_size": 1.528, "median_size": 0.831, "25th_size": 0.547, "27th_size": 1.605}</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2756,7 +2729,6 @@
           <t>{"number": 282, "mean_size": 1.497, "median_size": 0.807, "25th_size": 0.539, "27th_size": 1.578}</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2836,7 +2808,6 @@
           <t>{"number": 778, "mean_size": 2.035, "median_size": 1.197, "25th_size": 0.78, "27th_size": 2.448}</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2916,7 +2887,6 @@
           <t>{"number": 785, "mean_size": 2.014, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.398}</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2996,7 +2966,6 @@
           <t>{"number": 777, "mean_size": 2.029, "median_size": 1.198, "25th_size": 0.78, "27th_size": 2.435}</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3076,7 +3045,6 @@
           <t>{"number": 778, "mean_size": 2.033, "median_size": 1.226, "25th_size": 0.78, "27th_size": 2.422}</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3156,7 +3124,6 @@
           <t>{"number": 808, "mean_size": 1.883, "median_size": 1.208, "25th_size": 0.805, "27th_size": 2.254}</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3236,7 +3203,6 @@
           <t>{"number": 820, "mean_size": 1.858, "median_size": 1.21, "25th_size": 0.763, "27th_size": 2.205}</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3316,7 +3282,6 @@
           <t>{"number": 806, "mean_size": 1.885, "median_size": 1.21, "25th_size": 0.8, "27th_size": 2.264}</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3396,7 +3361,6 @@
           <t>{"number": 800, "mean_size": 1.897, "median_size": 1.225, "25th_size": 0.807, "27th_size": 2.273}</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3476,7 +3440,6 @@
           <t>{"number": 709, "mean_size": 2.235, "median_size": 1.265, "25th_size": 0.797, "27th_size": 2.489}</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3556,7 +3519,6 @@
           <t>{"number": 702, "mean_size": 2.256, "median_size": 1.257, "25th_size": 0.777, "27th_size": 2.519}</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3636,7 +3598,6 @@
           <t>{"number": 701, "mean_size": 2.258, "median_size": 1.249, "25th_size": 0.799, "27th_size": 2.546}</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3716,7 +3677,6 @@
           <t>{"number": 700, "mean_size": 2.259, "median_size": 1.274, "25th_size": 0.79, "27th_size": 2.516}</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3796,7 +3756,6 @@
           <t>{"number": 751, "mean_size": 2.082, "median_size": 1.36, "25th_size": 0.82, "27th_size": 2.5}</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3876,7 +3835,6 @@
           <t>{"number": 755, "mean_size": 2.074, "median_size": 1.33, "25th_size": 0.818, "27th_size": 2.505}</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3956,7 +3914,6 @@
           <t>{"number": 744, "mean_size": 2.101, "median_size": 1.369, "25th_size": 0.822, "27th_size": 2.528}</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4036,7 +3993,6 @@
           <t>{"number": 745, "mean_size": 2.095, "median_size": 1.379, "25th_size": 0.822, "27th_size": 2.5}</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4116,7 +4072,6 @@
           <t>{"number": 758, "mean_size": 2.102, "median_size": 1.211, "25th_size": 0.803, "27th_size": 2.446}</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4196,7 +4151,6 @@
           <t>{"number": 749, "mean_size": 2.125, "median_size": 1.254, "25th_size": 0.799, "27th_size": 2.47}</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4276,7 +4230,6 @@
           <t>{"number": 755, "mean_size": 2.111, "median_size": 1.236, "25th_size": 0.756, "27th_size": 2.44}</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4356,7 +4309,6 @@
           <t>{"number": 753, "mean_size": 2.116, "median_size": 1.238, "25th_size": 0.798, "27th_size": 2.457}</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4436,7 +4388,6 @@
           <t>{"number": 805, "mean_size": 1.77, "median_size": 1.175, "25th_size": 0.784, "27th_size": 2.028}</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4516,7 +4467,6 @@
           <t>{"number": 798, "mean_size": 1.782, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.04}</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4596,7 +4546,6 @@
           <t>{"number": 803, "mean_size": 1.777, "median_size": 1.18, "25th_size": 0.787, "27th_size": 2.016}</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4676,7 +4625,6 @@
           <t>{"number": 797, "mean_size": 1.785, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.071}</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4756,7 +4704,6 @@
           <t>{"number": 831, "mean_size": 2.199, "median_size": 1.318, "25th_size": 0.811, "27th_size": 2.479}</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4836,7 +4783,6 @@
           <t>{"number": 839, "mean_size": 2.182, "median_size": 1.273, "25th_size": 0.806, "27th_size": 2.452}</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4916,7 +4862,6 @@
           <t>{"number": 830, "mean_size": 2.198, "median_size": 1.322, "25th_size": 0.813, "27th_size": 2.454}</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4996,7 +4941,6 @@
           <t>{"number": 836, "mean_size": 2.192, "median_size": 1.323, "25th_size": 0.814, "27th_size": 2.481}</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5076,7 +5020,6 @@
           <t>{"number": 787, "mean_size": 2.115, "median_size": 1.269, "25th_size": 0.761, "27th_size": 2.41}</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5156,7 +5099,6 @@
           <t>{"number": 793, "mean_size": 2.102, "median_size": 1.245, "25th_size": 0.763, "27th_size": 2.422}</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5236,7 +5178,6 @@
           <t>{"number": 793, "mean_size": 2.098, "median_size": 1.244, "25th_size": 0.763, "27th_size": 2.391}</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5316,7 +5257,6 @@
           <t>{"number": 788, "mean_size": 2.112, "median_size": 1.271, "25th_size": 0.774, "27th_size": 2.425}</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5396,7 +5336,6 @@
           <t>{"number": 759, "mean_size": 1.991, "median_size": 1.125, "25th_size": 0.734, "27th_size": 2.126}</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5476,7 +5415,6 @@
           <t>{"number": 762, "mean_size": 1.984, "median_size": 1.126, "25th_size": 0.728, "27th_size": 2.155}</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5556,7 +5494,6 @@
           <t>{"number": 763, "mean_size": 1.987, "median_size": 1.129, "25th_size": 0.736, "27th_size": 2.119}</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5636,7 +5573,6 @@
           <t>{"number": 759, "mean_size": 1.992, "median_size": 1.163, "25th_size": 0.776, "27th_size": 2.112}</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5716,7 +5652,6 @@
           <t>{"number": 814, "mean_size": 2.091, "median_size": 1.27, "25th_size": 0.774, "27th_size": 2.349}</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5796,7 +5731,6 @@
           <t>{"number": 820, "mean_size": 2.09, "median_size": 1.26, "25th_size": 0.789, "27th_size": 2.372}</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5876,7 +5810,6 @@
           <t>{"number": 816, "mean_size": 2.099, "median_size": 1.285, "25th_size": 0.791, "27th_size": 2.372}</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5956,7 +5889,6 @@
           <t>{"number": 824, "mean_size": 2.085, "median_size": 1.273, "25th_size": 0.79, "27th_size": 2.37}</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6036,7 +5968,6 @@
           <t>{"number": 821, "mean_size": 1.996, "median_size": 1.146, "25th_size": 0.772, "27th_size": 2.243}</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6116,7 +6047,6 @@
           <t>{"number": 822, "mean_size": 1.999, "median_size": 1.149, "25th_size": 0.78, "27th_size": 2.251}</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6196,7 +6126,6 @@
           <t>{"number": 827, "mean_size": 1.991, "median_size": 1.147, "25th_size": 0.789, "27th_size": 2.214}</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6276,7 +6205,6 @@
           <t>{"number": 820, "mean_size": 1.996, "median_size": 1.148, "25th_size": 0.777, "27th_size": 2.195}</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6356,7 +6284,6 @@
           <t>{"number": 848, "mean_size": 1.94, "median_size": 1.155, "25th_size": 0.793, "27th_size": 2.158}</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6436,7 +6363,6 @@
           <t>{"number": 856, "mean_size": 1.93, "median_size": 1.163, "25th_size": 0.797, "27th_size": 2.15}</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6516,7 +6442,6 @@
           <t>{"number": 855, "mean_size": 1.933, "median_size": 1.171, "25th_size": 0.796, "27th_size": 2.165}</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6596,7 +6521,6 @@
           <t>{"number": 856, "mean_size": 1.93, "median_size": 1.145, "25th_size": 0.797, "27th_size": 2.145}</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6676,7 +6600,6 @@
           <t>{"number": 750, "mean_size": 1.999, "median_size": 1.232, "25th_size": 0.758, "27th_size": 2.276}</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6756,7 +6679,6 @@
           <t>{"number": 739, "mean_size": 2.024, "median_size": 1.234, "25th_size": 0.761, "27th_size": 2.303}</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6836,7 +6758,6 @@
           <t>{"number": 747, "mean_size": 2.005, "median_size": 1.234, "25th_size": 0.759, "27th_size": 2.289}</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6916,7 +6837,6 @@
           <t>{"number": 753, "mean_size": 1.997, "median_size": 1.226, "25th_size": 0.759, "27th_size": 2.277}</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6996,7 +6916,6 @@
           <t>{"number": 745, "mean_size": 2.047, "median_size": 1.242, "25th_size": 0.81, "27th_size": 2.362}</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7076,7 +6995,6 @@
           <t>{"number": 747, "mean_size": 2.045, "median_size": 1.218, "25th_size": 0.812, "27th_size": 2.343}</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7156,7 +7074,6 @@
           <t>{"number": 739, "mean_size": 2.061, "median_size": 1.223, "25th_size": 0.811, "27th_size": 2.363}</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7236,7 +7153,6 @@
           <t>{"number": 742, "mean_size": 2.057, "median_size": 1.218, "25th_size": 0.812, "27th_size": 2.39}</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7316,7 +7232,6 @@
           <t>{"number": 750, "mean_size": 2.157, "median_size": 1.359, "25th_size": 0.809, "27th_size": 2.456}</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7396,7 +7311,6 @@
           <t>{"number": 765, "mean_size": 2.131, "median_size": 1.339, "25th_size": 0.784, "27th_size": 2.46}</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7476,7 +7390,6 @@
           <t>{"number": 760, "mean_size": 2.14, "median_size": 1.36, "25th_size": 0.784, "27th_size": 2.447}</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7556,7 +7469,6 @@
           <t>{"number": 765, "mean_size": 2.125, "median_size": 1.317, "25th_size": 0.784, "27th_size": 2.432}</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7636,7 +7548,6 @@
           <t>{"number": 733, "mean_size": 2.012, "median_size": 1.229, "25th_size": 0.779, "27th_size": 2.346}</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7716,7 +7627,6 @@
           <t>{"number": 728, "mean_size": 2.02, "median_size": 1.218, "25th_size": 0.78, "27th_size": 2.369}</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7796,7 +7706,6 @@
           <t>{"number": 725, "mean_size": 2.026, "median_size": 1.238, "25th_size": 0.78, "27th_size": 2.387}</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7876,7 +7785,6 @@
           <t>{"number": 733, "mean_size": 2.006, "median_size": 1.238, "25th_size": 0.78, "27th_size": 2.335}</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7956,7 +7864,6 @@
           <t>{"number": 686, "mean_size": 2.188, "median_size": 1.306, "25th_size": 0.792, "27th_size": 2.476}</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8036,7 +7943,6 @@
           <t>{"number": 681, "mean_size": 2.206, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.503}</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8116,7 +8022,6 @@
           <t>{"number": 683, "mean_size": 2.203, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.52}</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8196,7 +8101,6 @@
           <t>{"number": 687, "mean_size": 2.189, "median_size": 1.304, "25th_size": 0.803, "27th_size": 2.515}</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8276,7 +8180,6 @@
           <t>{"number": 788, "mean_size": 2.109, "median_size": 1.23, "25th_size": 0.818, "27th_size": 2.44}</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8356,7 +8259,6 @@
           <t>{"number": 787, "mean_size": 2.113, "median_size": 1.243, "25th_size": 0.812, "27th_size": 2.462}</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8436,7 +8338,6 @@
           <t>{"number": 790, "mean_size": 2.103, "median_size": 1.241, "25th_size": 0.821, "27th_size": 2.431}</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8516,7 +8417,6 @@
           <t>{"number": 789, "mean_size": 2.105, "median_size": 1.234, "25th_size": 0.814, "27th_size": 2.448}</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8596,7 +8496,6 @@
           <t>{"number": 804, "mean_size": 1.879, "median_size": 1.22, "25th_size": 0.78, "27th_size": 2.231}</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8676,7 +8575,6 @@
           <t>{"number": 807, "mean_size": 1.877, "median_size": 1.228, "25th_size": 0.78, "27th_size": 2.187}</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8756,7 +8654,6 @@
           <t>{"number": 819, "mean_size": 1.853, "median_size": 1.22, "25th_size": 0.781, "27th_size": 2.142}</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8836,7 +8733,8742 @@
           <t>{"number": 814, "mean_size": 1.863, "median_size": 1.217, "25th_size": 0.781, "27th_size": 2.152}</t>
         </is>
       </c>
-      <c r="S105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>e105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>e105_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6505681818181818</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:28:50</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>(41.00639088888889, -81.0072268279321)</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>30944.76027917087</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.03518</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>{"number": 316, "mean_size": 1.728, "median_size": 0.895, "25th_size": 0.582, "27th_size": 1.98}</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.919720829122245}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>e106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>e106_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>IMG_3174HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.6505681818181818</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>30944.76027917087</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.03523</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>{"number": 312, "mean_size": 1.747, "median_size": 0.879, "25th_size": 0.582, "27th_size": 2.013}</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.919720829122245}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>e107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>e107_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>IMG_3174HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.6477272727272727</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>30948.25175943559</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>{"number": 321, "mean_size": 1.716, "median_size": 0.877, "25th_size": 0.585, "27th_size": 1.965}</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.428240564404422}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>e108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>e108_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>IMG_3174VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.6473721590909091</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>30948.23043900859</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.03527</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>{"number": 314, "mean_size": 1.738, "median_size": 0.879, "25th_size": 0.585, "27th_size": 2.008}</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.44956099140349}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>e109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>e109_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.6931735657225854</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:28:55</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>(41.00639088888889, -81.0072268279321)</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>30946.57193585236</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>{"number": 265, "mean_size": 1.591, "median_size": 0.918, "25th_size": 0.584, "27th_size": 1.735}</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.108064147632955}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>e110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>e110_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>IMG_3175HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.6870007262164125</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>30946.19091132575</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.02523</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>{"number": 267, "mean_size": 1.572, "median_size": 0.913, "25th_size": 0.564, "27th_size": 1.722}</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.489088674244282}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>e111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>e111_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>IMG_3175HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.6877269426289034</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>30946.23627086703</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.02547</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>{"number": 262, "mean_size": 1.591, "median_size": 0.889, "25th_size": 0.563, "27th_size": 1.747}</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.443729132959184}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>e112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>e112_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>IMG_3175VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.6870007262164125</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>30946.19091132575</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.02527</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>{"number": 261, "mean_size": 1.585, "median_size": 0.886, "25th_size": 0.564, "27th_size": 1.734}</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.489088674244282}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>e113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>e113_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.6973495702005731</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:29:05</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>(41.006390880401234, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>30947.38783621121</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.02832</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>{"number": 266, "mean_size": 1.706, "median_size": 0.999, "25th_size": 0.626, "27th_size": 1.89}</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.292163788784922}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>e114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>e114_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>IMG_3176HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.6969914040114613</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>30947.36697559702</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.02835</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>{"number": 269, "mean_size": 1.69, "median_size": 0.989, "25th_size": 0.627, "27th_size": 1.872}</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.31302440297064}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>e115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>e115_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>IMG_3176HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.6912607449856734</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>30947.02878329082</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.02838</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>{"number": 272, "mean_size": 1.673, "median_size": 0.987, "25th_size": 0.632, "27th_size": 1.836}</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.651216709173394}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>e116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>e116_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>IMG_3176VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.6905444126074498</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>30946.98591622044</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.02841</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>{"number": 272, "mean_size": 1.671, "median_size": 0.949, "25th_size": 0.632, "27th_size": 1.82}</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.69408377954924}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>e117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>e117_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.7108782074448862</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:29:29</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>(41.00639088657407, -81.00750002700616)</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>30947.79839037044</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.02801</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>{"number": 280, "mean_size": 1.598, "median_size": 0.898, "25th_size": 0.62, "27th_size": 1.739}</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.88160962955362}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>e118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>e118_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>IMG_3177HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.7065413805565595</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>30947.55357039265</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.02802</v>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>{"number": 276, "mean_size": 1.61, "median_size": 0.935, "25th_size": 0.624, "27th_size": 1.77}</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.126429607341656}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>e119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>e119_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>IMG_3177HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.7076255872786411</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>30947.61519759692</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.02808</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>{"number": 280, "mean_size": 1.594, "median_size": 0.934, "25th_size": 0.623, "27th_size": 1.75}</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.064802403069148}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>e120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>e120_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>IMG_3177VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.7061799783158655</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>30947.53296488634</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.02803</v>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>{"number": 280, "mean_size": 1.592, "median_size": 0.897, "25th_size": 0.622, "27th_size": 1.718}</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.147035113652905}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>e121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>e121_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.7107156380159031</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:29:35</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>(41.006390883487654, -81.00750006712963)</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>30945.84607989091</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.02283</v>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>{"number": 300, "mean_size": 1.512, "median_size": 0.878, "25th_size": 0.568, "27th_size": 1.787}</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.833920109084847}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>e122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>e122_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>IMG_3178HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.7054146156758804</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>30945.51669350509</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.02289</v>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>{"number": 300, "mean_size": 1.514, "median_size": 0.859, "25th_size": 0.573, "27th_size": 1.801}</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.16330649490069}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>e123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>e123_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>IMG_3178HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.7057932601287391</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>30945.54046749801</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.02297</v>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>{"number": 305, "mean_size": 1.499, "median_size": 0.858, "25th_size": 0.572, "27th_size": 1.773}</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.139532501980135}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>e124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>e124_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>IMG_3178VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.7050359712230215</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>30945.49288119792</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.02284</v>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>{"number": 306, "mean_size": 1.489, "median_size": 0.859, "25th_size": 0.573, "27th_size": 1.777}</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.18711880206885}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>e125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>e125_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.7132046916382898</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:29:46</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>(41.00639089197531, -81.00750001388889)</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>30946.03101432641</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.02807</v>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>{"number": 282, "mean_size": 1.657, "median_size": 0.962, "25th_size": 0.647, "27th_size": 1.899}</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.64898567357822}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>e126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>e126_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>IMG_3179HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.7079076806659099</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>30945.70581952276</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.02828</v>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>{"number": 280, "mean_size": 1.666, "median_size": 0.951, "25th_size": 0.652, "27th_size": 1.883}</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.974180477232597}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>e127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>e127_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>IMG_3179HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.7086643965191071</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>30945.75272277615</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.02815</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>{"number": 282, "mean_size": 1.663, "median_size": 0.984, "25th_size": 0.651, "27th_size": 1.903}</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.927277223842104}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>e128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>e128_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>IMG_3179VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.7075293227393114</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>30945.68231144156</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.0283</v>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>{"number": 284, "mean_size": 1.652, "median_size": 0.938, "25th_size": 0.652, "27th_size": 1.89}</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.997688558437467}</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>e129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>e129_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.7420202778820879</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>07:09:2020 15:29:53</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>(41.0063908912037, -81.0075000779321)</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>30947.97908570866</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0.0226</v>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>{"number": 282, "mean_size": 1.495, "median_size": 0.821, "25th_size": 0.54, "27th_size": 1.553}</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.70091429133406}</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>e130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>e130_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>IMG_3180HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.7315058205031919</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>30947.40866470744</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0.02234</v>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>{"number": 268, "mean_size": 1.541, "median_size": 0.851, "25th_size": 0.548, "27th_size": 1.608}</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.271335292555094}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>e131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>e131_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>IMG_3180HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.7330078858430342</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>30947.49165882826</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.02252</v>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>{"number": 273, "mean_size": 1.528, "median_size": 0.831, "25th_size": 0.547, "27th_size": 1.605}</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.188341171728023}</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>e132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>e132_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>IMG_3180VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.7431468268869695</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>30948.03877034276</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0.02259</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>{"number": 282, "mean_size": 1.497, "median_size": 0.807, "25th_size": 0.539, "27th_size": 1.578}</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.641229657232156}</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>e133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>e133_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>IMG_3070.jpeg</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.5301989150090416</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:33:40</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>(41.00639088888889, -81.00722681481481)</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
+        <v>143.60237</v>
+      </c>
+      <c r="P134" t="n">
+        <v>30803.94433540435</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0.10616</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>{"number": 778, "mean_size": 2.035, "median_size": 1.197, "25th_size": 0.78, "27th_size": 2.448}</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.13329459564591}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>e134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>e134_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>IMG_3070HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.5298372513562387</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
+        <v>148.96042</v>
+      </c>
+      <c r="P135" t="n">
+        <v>30798.55879029714</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.10622</v>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>{"number": 785, "mean_size": 2.014, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.398}</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.160789702850348}</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>e135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>e135_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>IMG_3070HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.5298372513562387</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
+        <v>143.51171</v>
+      </c>
+      <c r="P136" t="n">
+        <v>30804.00750029714</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.10617</v>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>{"number": 777, "mean_size": 2.029, "median_size": 1.198, "25th_size": 0.78, "27th_size": 2.435}</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.160789702850348}</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>e136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>e136_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>IMG_3070VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.5301989150090416</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
+        <v>139.87939</v>
+      </c>
+      <c r="P137" t="n">
+        <v>30807.66731540435</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.1061</v>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>{"number": 778, "mean_size": 2.033, "median_size": 1.226, "25th_size": 0.78, "27th_size": 2.422}</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.13329459564591}</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>e137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>e137_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>IMG_3071.jpeg</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5446043165467626</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:33:48</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>(41.00639087962963, -81.00722683410494)</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
+        <v>98.56932</v>
+      </c>
+      <c r="P138" t="n">
+        <v>30850.23376420396</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.08734</v>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>{"number": 808, "mean_size": 1.883, "median_size": 1.208, "25th_size": 0.805, "27th_size": 2.254}</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.876915796031398}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>e138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>e138_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>IMG_3071HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
+        <v>95.83297</v>
+      </c>
+      <c r="P139" t="n">
+        <v>30852.89508182029</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.08724999999999999</v>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>{"number": 820, "mean_size": 1.858, "median_size": 1.21, "25th_size": 0.763, "27th_size": 2.205}</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.951948179706633}</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>e139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>e139_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>IMG_3071HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
+        <v>98.31514</v>
+      </c>
+      <c r="P140" t="n">
+        <v>30850.41291182029</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.08734</v>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>{"number": 806, "mean_size": 1.885, "median_size": 1.21, "25th_size": 0.8, "27th_size": 2.264}</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.951948179706633}</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>e140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>e140_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>IMG_3071VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
+        <v>96.82991</v>
+      </c>
+      <c r="P141" t="n">
+        <v>30851.89814182029</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.08717</v>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>{"number": 800, "mean_size": 1.897, "median_size": 1.225, "25th_size": 0.807, "27th_size": 2.273}</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.951948179706633}</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>e141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>e141_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>IMG_3072.jpeg</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.5559593023255814</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:33:56</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>(41.006390883487654, -81.00750007098765)</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O142" t="n">
+        <v>130.59467</v>
+      </c>
+      <c r="P142" t="n">
+        <v>30814.26536844674</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0.1345</v>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>{"number": 709, "mean_size": 2.235, "median_size": 1.265, "25th_size": 0.797, "27th_size": 2.489}</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.819961553248746}</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>e142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>e142_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>IMG_3072HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0.5563226744186046</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
+        <v>136.23562</v>
+      </c>
+      <c r="P143" t="n">
+        <v>30808.6542192422</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0.13458</v>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>{"number": 702, "mean_size": 2.256, "median_size": 1.257, "25th_size": 0.777, "27th_size": 2.519}</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.790160757794172}</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>e143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>e143_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>IMG_3072HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.5541424418604651</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
+        <v>132.86558</v>
+      </c>
+      <c r="P144" t="n">
+        <v>30811.8445740446</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.13462</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>{"number": 701, "mean_size": 2.258, "median_size": 1.249, "25th_size": 0.799, "27th_size": 2.546}</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.969845955388333}</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>e144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>e144_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>IMG_3072VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.5545058139534884</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
+        <v>136.49651</v>
+      </c>
+      <c r="P145" t="n">
+        <v>30808.24373882808</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.13457</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>{"number": 700, "mean_size": 2.259, "median_size": 1.274, "25th_size": 0.79, "27th_size": 2.516}</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.939751171910558}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>e145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>e145_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>IMG_3073.jpeg</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.6909851301115242</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:34:06</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>(41.00639088966049, -81.00750005015432)</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
+        <v>5.8979</v>
+      </c>
+      <c r="P146" t="n">
+        <v>30942.21345062041</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0.10498</v>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>{"number": 751, "mean_size": 2.082, "median_size": 1.36, "25th_size": 0.82, "27th_size": 2.5}</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.568649379581565}</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>e146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>e146_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>IMG_3073HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.6923791821561338</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
+        <v>5.69633</v>
+      </c>
+      <c r="P147" t="n">
+        <v>30942.49374122201</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0.1048</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>{"number": 755, "mean_size": 2.074, "median_size": 1.33, "25th_size": 0.818, "27th_size": 2.505}</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.48992877798297}</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>e147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>e147_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>IMG_3073HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.6895910780669146</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
+        <v>7.46154</v>
+      </c>
+      <c r="P148" t="n">
+        <v>30940.57061212037</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0.10486</v>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>{"number": 744, "mean_size": 2.101, "median_size": 1.369, "25th_size": 0.822, "27th_size": 2.528}</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.647847879628884}</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>e148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>e148_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>IMG_3073VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.6895910780669146</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
+        <v>6.28562</v>
+      </c>
+      <c r="P149" t="n">
+        <v>30941.74653212036</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0.10482</v>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>{"number": 745, "mean_size": 2.095, "median_size": 1.379, "25th_size": 0.822, "27th_size": 2.5}</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.647847879628884}</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>e149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>e149_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>IMG_3074.jpeg</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.7578632051922117</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:34:22</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>(41.006390874999994, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>30948.9024362199</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0.11118</v>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>{"number": 758, "mean_size": 2.102, "median_size": 1.211, "25th_size": 0.803, "27th_size": 2.446}</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.77756378009342}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>e150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>e150_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>IMG_3074HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.7538691962056915</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>30948.70294159027</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0.11159</v>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>{"number": 749, "mean_size": 2.125, "median_size": 1.254, "25th_size": 0.799, "27th_size": 2.47}</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.977058409718868}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>e151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>e151_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>IMG_3074HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.7543684473290065</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>30948.72805182029</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.11131</v>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>{"number": 755, "mean_size": 2.111, "median_size": 1.236, "25th_size": 0.756, "27th_size": 2.44}</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.951948179706633}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>e152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>e152_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>IMG_3074VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.7548676984523215</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>30948.75311224489</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0.11151</v>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>{"number": 753, "mean_size": 2.116, "median_size": 1.238, "25th_size": 0.798, "27th_size": 2.457}</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.926887755102037}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>e153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>e153_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>IMG_3075.jpeg</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.7760598503740649</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:34:29</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>(41.00639087962963, -81.00722684490741)</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>30945.61628775913</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0.08153000000000001</v>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>{"number": 805, "mean_size": 1.77, "median_size": 1.175, "25th_size": 0.784, "27th_size": 2.028}</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.063712240865435}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>e154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>e154_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>IMG_3075HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.771571072319202</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>30945.35882036211</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.08161</v>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>{"number": 798, "mean_size": 1.782, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.04}</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.321179637883688}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>e155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>e155_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>IMG_3075HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.773067331670823</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>30945.44514131113</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0.08160000000000001</v>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>{"number": 803, "mean_size": 1.777, "median_size": 1.18, "25th_size": 0.787, "27th_size": 2.016}</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.234858688865756}</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>e156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>e156_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>IMG_3075VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.771571072319202</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O157" t="n">
+        <v>6.74488</v>
+      </c>
+      <c r="P157" t="n">
+        <v>30938.61394036211</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0.08151</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>{"number": 797, "mean_size": 1.785, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.071}</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.321179637883688}</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>e157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>e157_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>IMG_3076.jpeg</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.9192660550458716</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:34:40</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>(41.00639089429012, -81.00750005401234)</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O158" t="n">
+        <v>5.58794</v>
+      </c>
+      <c r="P158" t="n">
+        <v>30942.93782427982</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0.1366</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>{"number": 831, "mean_size": 2.199, "median_size": 1.318, "25th_size": 0.811, "27th_size": 2.479}</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.15423572017641}</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>e158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>e158_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>IMG_3076HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9155963302752294</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>30948.37191561479</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0.13591</v>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>{"number": 839, "mean_size": 2.182, "median_size": 1.273, "25th_size": 0.806, "27th_size": 2.452}</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.308084385203266}</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>e159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>e159_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>IMG_3076HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.9168195718654434</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O160" t="n">
+        <v>6.63076</v>
+      </c>
+      <c r="P160" t="n">
+        <v>30941.7926438169</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0.1369</v>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>{"number": 830, "mean_size": 2.198, "median_size": 1.322, "25th_size": 0.813, "27th_size": 2.454}</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.256596183090256}</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>e160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>e160_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>IMG_3076VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.9155963302752294</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>30948.37191561479</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0.13693</v>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>{"number": 836, "mean_size": 2.192, "median_size": 1.323, "25th_size": 0.814, "27th_size": 2.481}</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.308084385203266}</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>e161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>e161_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>IMG_3077.jpeg</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.6625310173697271</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:35:02</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>(41.00639086651234, -81.00750002854937)</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>30946.86517583357</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0.11319</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>{"number": 787, "mean_size": 2.115, "median_size": 1.269, "25th_size": 0.761, "27th_size": 2.41}</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.814824166421182}</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>e162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>e162_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>IMG_3077HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.6604631927212572</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>30946.73463476642</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0.1133</v>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>{"number": 793, "mean_size": 2.102, "median_size": 1.245, "25th_size": 0.763, "27th_size": 2.422}</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.945365233576254}</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>e163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>e163_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>IMG_3077HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.6608767576509512</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>30946.76084103878</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0.1122</v>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>{"number": 793, "mean_size": 2.098, "median_size": 1.244, "25th_size": 0.763, "27th_size": 2.391}</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.91915896121716}</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>e164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>e164_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>IMG_3077VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.6637717121588089</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>30946.94291553847</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0.11321</v>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>{"number": 788, "mean_size": 2.112, "median_size": 1.271, "25th_size": 0.774, "27th_size": 2.425}</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.73708446152502}</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>e165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>e165_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>IMG_3078.jpeg</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.5612391930835735</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:35:11</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>(41.00639089429012, -81.00750005246913)</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O166" t="n">
+        <v>170.55026</v>
+      </c>
+      <c r="P166" t="n">
+        <v>30775.12263764534</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0.11499</v>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>{"number": 759, "mean_size": 1.991, "median_size": 1.125, "25th_size": 0.734, "27th_size": 2.126}</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.007102354653025}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>e166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>e166_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>IMG_3078HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.5605187319884726</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O167" t="n">
+        <v>169.4589</v>
+      </c>
+      <c r="P167" t="n">
+        <v>30776.15738775913</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0.11502</v>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>{"number": 762, "mean_size": 1.984, "median_size": 1.126, "25th_size": 0.728, "27th_size": 2.155}</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.063712240865435}</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>e167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>e167_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>IMG_3078HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.5594380403458213</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O168" t="n">
+        <v>172.6999</v>
+      </c>
+      <c r="P168" t="n">
+        <v>30772.83106249329</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>{"number": 763, "mean_size": 1.987, "median_size": 1.129, "25th_size": 0.736, "27th_size": 2.119}</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.149037506701397}</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>e168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>e168_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>IMG_3078VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.5597982708933718</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O169" t="n">
+        <v>167.79873</v>
+      </c>
+      <c r="P169" t="n">
+        <v>30777.76072916131</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0.1149</v>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>{"number": 759, "mean_size": 1.992, "median_size": 1.163, "25th_size": 0.776, "27th_size": 2.112}</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.120540838687546}</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>e169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>e169_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>IMG_3080.jpeg</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.5870722433460076</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:35:39</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>(41.00639088966049, -81.00750002854937)</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O170" t="n">
+        <v>64.51557</v>
+      </c>
+      <c r="P170" t="n">
+        <v>30880.75642575827</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0.11372</v>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>{"number": 814, "mean_size": 2.091, "median_size": 1.27, "25th_size": 0.774, "27th_size": 2.349}</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.408004241724605}</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>e170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>e170_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>IMG_3080HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.5863117870722433</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O171" t="n">
+        <v>60.27771</v>
+      </c>
+      <c r="P171" t="n">
+        <v>30884.93612094369</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0.11384</v>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>{"number": 820, "mean_size": 2.09, "median_size": 1.26, "25th_size": 0.789, "27th_size": 2.372}</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.466169056306676}</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>e171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>e171_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>IMG_3080HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.5863117870722433</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O172" t="n">
+        <v>64.57558</v>
+      </c>
+      <c r="P172" t="n">
+        <v>30880.63825094369</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0.11385</v>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>{"number": 816, "mean_size": 2.099, "median_size": 1.285, "25th_size": 0.791, "27th_size": 2.372}</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.466169056306676}</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>e172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>e172_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>IMG_3080VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.5866920152091255</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O173" t="n">
+        <v>64.19925000000001</v>
+      </c>
+      <c r="P173" t="n">
+        <v>30881.04369162292</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0.11392</v>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>{"number": 824, "mean_size": 2.085, "median_size": 1.273, "25th_size": 0.79, "27th_size": 2.37}</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.437058377074724}</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>e173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>e173_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>IMG_3081.jpeg</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.547244094488189</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:35:53</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>(41.00639088580247, -81.00750002006173)</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O174" t="n">
+        <v>112.82844</v>
+      </c>
+      <c r="P174" t="n">
+        <v>30832.00173916102</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0.1165</v>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>{"number": 821, "mean_size": 1.996, "median_size": 1.146, "25th_size": 0.772, "27th_size": 2.243}</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.84982083897065}</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>e174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>e174_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>IMG_3081HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.5458124552612742</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O175" t="n">
+        <v>116.95646</v>
+      </c>
+      <c r="P175" t="n">
+        <v>30827.7536940446</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0.11659</v>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>{"number": 822, "mean_size": 1.999, "median_size": 1.149, "25th_size": 0.78, "27th_size": 2.251}</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.969845955388333}</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>e175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>e175_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>IMG_3081HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.5468861846814602</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O176" t="n">
+        <v>112.38428</v>
+      </c>
+      <c r="P176" t="n">
+        <v>30832.41598123187</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0.11641</v>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>{"number": 827, "mean_size": 1.991, "median_size": 1.147, "25th_size": 0.789, "27th_size": 2.214}</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.879738768125865}</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>e176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>e176_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>IMG_3081VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.5461703650680029</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O177" t="n">
+        <v>115.78091</v>
+      </c>
+      <c r="P177" t="n">
+        <v>30828.95933882808</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0.11632</v>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>{"number": 820, "mean_size": 1.996, "median_size": 1.148, "25th_size": 0.777, "27th_size": 2.195}</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.939751171910558}</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>e177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>e177_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>IMG_3082.jpeg</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.6332094175960347</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:08</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>(41.006390881172834, -81.00722684876544)</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O178" t="n">
+        <v>25.22617</v>
+      </c>
+      <c r="P178" t="n">
+        <v>30919.72309597247</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>{"number": 848, "mean_size": 1.94, "median_size": 1.155, "25th_size": 0.793, "27th_size": 2.158}</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.7307340275198}</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>e178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>e178_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>IMG_3082HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.6319702602230484</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O179" t="n">
+        <v>25.87089</v>
+      </c>
+      <c r="P179" t="n">
+        <v>30918.98914844674</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0.11111</v>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>{"number": 856, "mean_size": 1.93, "median_size": 1.163, "25th_size": 0.797, "27th_size": 2.15}</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.819961553248746}</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>e179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>e179_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>IMG_3082HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.6323833126807105</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O180" t="n">
+        <v>27.5216</v>
+      </c>
+      <c r="P180" t="n">
+        <v>30917.3682392422</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0.11097</v>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>{"number": 855, "mean_size": 1.933, "median_size": 1.171, "25th_size": 0.796, "27th_size": 2.165}</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.790160757794172}</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>e180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>e180_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>IMG_3082VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.6319702602230484</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O181" t="n">
+        <v>28.24218</v>
+      </c>
+      <c r="P181" t="n">
+        <v>30916.61785844675</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0.11107</v>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>{"number": 856, "mean_size": 1.93, "median_size": 1.145, "25th_size": 0.797, "27th_size": 2.145}</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 22.819961553248746}</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>e181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>e181_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>IMG_3083.jpeg</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.597103601930932</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:25</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>(41.00639088811728, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O182" t="n">
+        <v>4.68438</v>
+      </c>
+      <c r="P182" t="n">
+        <v>30942.33584053909</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0.10671</v>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>{"number": 750, "mean_size": 1.999, "median_size": 1.232, "25th_size": 0.758, "27th_size": 2.276}</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.659779460904424}</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>e182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>e182_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>IMG_3083HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.5959896026735982</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O183" t="n">
+        <v>6.23014</v>
+      </c>
+      <c r="P183" t="n">
+        <v>30940.71277553847</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0.10671</v>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>{"number": 739, "mean_size": 2.024, "median_size": 1.234, "25th_size": 0.761, "27th_size": 2.303}</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.73708446152502}</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>e183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>e183_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>IMG_3083HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.5963609357593762</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O184" t="n">
+        <v>5.98826</v>
+      </c>
+      <c r="P184" t="n">
+        <v>30940.98047201211</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0.10667</v>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>{"number": 747, "mean_size": 2.005, "median_size": 1.234, "25th_size": 0.759, "27th_size": 2.289}</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.711267987884774}</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>e184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>e184_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>IMG_3083VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.5967322688451541</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O185" t="n">
+        <v>5.2838</v>
+      </c>
+      <c r="P185" t="n">
+        <v>30941.71070030571</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0.10679</v>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>{"number": 753, "mean_size": 1.997, "median_size": 1.226, "25th_size": 0.759, "27th_size": 2.277}</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.685499694282438}</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>e185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>e185_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>IMG_3084.jpeg</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.5695915279878971</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:31</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>(41.00639088811728, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O186" t="n">
+        <v>61.80637</v>
+      </c>
+      <c r="P186" t="n">
+        <v>30886.79562996825</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0.10676</v>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>{"number": 745, "mean_size": 2.047, "median_size": 1.242, "25th_size": 0.81, "27th_size": 2.362}</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.07800003174552}</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>e186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>e186_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>IMG_3084HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.5677004538577912</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O187" t="n">
+        <v>55.73974</v>
+      </c>
+      <c r="P187" t="n">
+        <v>30892.73494634057</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0.10672</v>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>{"number": 747, "mean_size": 2.045, "median_size": 1.218, "25th_size": 0.812, "27th_size": 2.343}</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.2053136594258}</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>e187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>e187_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>IMG_3084HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.5684568835098336</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O188" t="n">
+        <v>54.34744</v>
+      </c>
+      <c r="P188" t="n">
+        <v>30894.17832427982</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0.10663</v>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>{"number": 739, "mean_size": 2.061, "median_size": 1.223, "25th_size": 0.811, "27th_size": 2.363}</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.15423572017641}</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>e188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>e188_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>IMG_3084VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.5680786686838124</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O189" t="n">
+        <v>58.8879</v>
+      </c>
+      <c r="P189" t="n">
+        <v>30889.61235081515</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0.10656</v>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>{"number": 742, "mean_size": 2.057, "median_size": 1.218, "25th_size": 0.812, "27th_size": 2.39}</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.179749184841864}</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>e189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>e189_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>IMG_3085.jpeg</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.529989094874591</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:41</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>(41.00639088271605, -81.00722684027778)</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O190" t="n">
+        <v>49.86008</v>
+      </c>
+      <c r="P190" t="n">
+        <v>30897.46507775034</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0.1151</v>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>{"number": 750, "mean_size": 2.157, "median_size": 1.359, "25th_size": 0.809, "27th_size": 2.456}</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.35484224965706}</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>e190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>e190_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>IMG_3085HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O191" t="n">
+        <v>48.04672</v>
+      </c>
+      <c r="P191" t="n">
+        <v>30899.25048740382</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0.11507</v>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>{"number": 765, "mean_size": 2.131, "median_size": 1.339, "25th_size": 0.784, "27th_size": 2.46}</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.38279259617617}</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>e191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>e191_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>IMG_3085HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O192" t="n">
+        <v>53.74143</v>
+      </c>
+      <c r="P192" t="n">
+        <v>30893.55577740382</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0.11503</v>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>{"number": 760, "mean_size": 2.14, "median_size": 1.36, "25th_size": 0.784, "27th_size": 2.447}</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.38279259617617}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>e192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>e192_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>IMG_3085VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O193" t="n">
+        <v>50.26771</v>
+      </c>
+      <c r="P193" t="n">
+        <v>30897.02949740382</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0.11519</v>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>{"number": 765, "mean_size": 2.125, "median_size": 1.317, "25th_size": 0.784, "27th_size": 2.432}</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 20.38279259617617}</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>e193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>e193_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>IMG_3086.jpeg</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.576852193144121</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:36:52</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>(41.006390883487654, -81.00750004166666)</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O194" t="n">
+        <v>225.13831</v>
+      </c>
+      <c r="P194" t="n">
+        <v>30720.73101601128</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0.09671</v>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>{"number": 733, "mean_size": 2.012, "median_size": 1.229, "25th_size": 0.779, "27th_size": 2.346}</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.81067398871071}</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>e194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>e194_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>IMG_3086HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O195" t="n">
+        <v>226.66541</v>
+      </c>
+      <c r="P195" t="n">
+        <v>30719.1760162073</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0.09687</v>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>{"number": 728, "mean_size": 2.02, "median_size": 1.218, "25th_size": 0.78, "27th_size": 2.369}</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.83857379268843}</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>e195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>e195_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>IMG_3086HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O196" t="n">
+        <v>220.25626</v>
+      </c>
+      <c r="P196" t="n">
+        <v>30725.5851662073</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0.09678</v>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>{"number": 725, "mean_size": 2.026, "median_size": 1.238, "25th_size": 0.78, "27th_size": 2.387}</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.83857379268843}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>e196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>e196_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>IMG_3086VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O197" t="n">
+        <v>220.5696</v>
+      </c>
+      <c r="P197" t="n">
+        <v>30725.2718262073</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0.09678</v>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>{"number": 733, "mean_size": 2.006, "median_size": 1.238, "25th_size": 0.78, "27th_size": 2.335}</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.83857379268843}</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>e197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>e197_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>IMG_3088.jpeg</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.5461069250089702</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:37:07</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>(41.00639088811728, -81.00750004398148)</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O198" t="n">
+        <v>201.58876</v>
+      </c>
+      <c r="P198" t="n">
+        <v>30747.4122459383</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0.11737</v>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>{"number": 686, "mean_size": 2.188, "median_size": 1.306, "25th_size": 0.792, "27th_size": 2.476}</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.67899406169004}</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>e198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>e198_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>IMG_3088HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.545389307499103</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O199" t="n">
+        <v>201.65718</v>
+      </c>
+      <c r="P199" t="n">
+        <v>30747.29463835179</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0.11665</v>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>{"number": 681, "mean_size": 2.206, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.503}</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.728181648199442}</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>e199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>e199_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>IMG_3088HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.545389307499103</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O200" t="n">
+        <v>197.76678</v>
+      </c>
+      <c r="P200" t="n">
+        <v>30751.18503835179</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0.11659</v>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>{"number": 683, "mean_size": 2.203, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.52}</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.728181648199442}</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>e200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>e200_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>IMG_3088VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.5450304987441693</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O201" t="n">
+        <v>194.2626</v>
+      </c>
+      <c r="P201" t="n">
+        <v>30754.66455166807</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0.11645</v>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>{"number": 687, "mean_size": 2.189, "median_size": 1.304, "25th_size": 0.803, "27th_size": 2.515}</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 18.752848331925517}</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>e201</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>e201_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>IMG_3089.jpeg</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.5865877712031559</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:37:19</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>(41.00639087654321, -81.00722684490741)</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O202" t="n">
+        <v>49.00565</v>
+      </c>
+      <c r="P202" t="n">
+        <v>30899.10570062041</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0.11425</v>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>{"number": 788, "mean_size": 2.109, "median_size": 1.23, "25th_size": 0.818, "27th_size": 2.44}</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.568649379581565}</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>e202</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>e202_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>IMG_3089HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O203" t="n">
+        <v>48.91918</v>
+      </c>
+      <c r="P203" t="n">
+        <v>30899.05990570866</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0.11432</v>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>{"number": 787, "mean_size": 2.113, "median_size": 1.243, "25th_size": 0.812, "27th_size": 2.462}</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.70091429133406}</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>e203</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>e203_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>IMG_3089HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.5857988165680473</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O204" t="n">
+        <v>48.45842</v>
+      </c>
+      <c r="P204" t="n">
+        <v>30899.60018495867</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0.11432</v>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>{"number": 790, "mean_size": 2.103, "median_size": 1.241, "25th_size": 0.821, "27th_size": 2.431}</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.62139504132231}</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>e204</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>e204_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>IMG_3089VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O205" t="n">
+        <v>49.56953</v>
+      </c>
+      <c r="P205" t="n">
+        <v>30898.40955570866</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0.11428</v>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>{"number": 789, "mean_size": 2.105, "median_size": 1.234, "25th_size": 0.814, "27th_size": 2.448}</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 19.70091429133406}</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>e205</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>e205_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>IMG_3091.jpeg</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.5603726262988177</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>07:09:2020 14:37:40</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>(41.00639088657407, -81.0075000030864)</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O206" t="n">
+        <v>151.96324</v>
+      </c>
+      <c r="P206" t="n">
+        <v>30793.8781862073</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0.09279999999999999</v>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>{"number": 804, "mean_size": 1.879, "median_size": 1.22, "25th_size": 0.78, "27th_size": 2.231}</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.83857379268843}</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>e206</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>e206_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>IMG_3091HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.5600143317807238</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O207" t="n">
+        <v>150.41319</v>
+      </c>
+      <c r="P207" t="n">
+        <v>30795.40028283571</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0.09271</v>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>{"number": 807, "mean_size": 1.877, "median_size": 1.228, "25th_size": 0.78, "27th_size": 2.187}</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.86652716428247}</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>e207</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>e207_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>IMG_3091HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.5596560372626299</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O208" t="n">
+        <v>128.94929</v>
+      </c>
+      <c r="P208" t="n">
+        <v>30816.83617575928</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0.09276</v>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>{"number": 819, "mean_size": 1.853, "median_size": 1.22, "25th_size": 0.781, "27th_size": 2.142}</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.894534240713742}</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>e208</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>e208_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>IMG_3091VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.5596560372626299</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O209" t="n">
+        <v>144.85614</v>
+      </c>
+      <c r="P209" t="n">
+        <v>30800.92932575928</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0.09274</v>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>{"number": 814, "mean_size": 1.863, "median_size": 1.217, "25th_size": 0.781, "27th_size": 2.152}</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>{"length": 1, "width": 1, "min_number": 10, "max_number": 13, "total_area": 21.894534240713742}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/records/subjects/Experiment_Manifest.xlsx
+++ b/records/subjects/Experiment_Manifest.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S105"/>
+  <dimension ref="A1:S209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -596,7 +596,6 @@
           <t>{"number": 316, "mean_size": 1.728, "median_size": 0.895, "25th_size": 0.582, "27th_size": 1.98}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -676,7 +675,6 @@
           <t>{"number": 312, "mean_size": 1.747, "median_size": 0.879, "25th_size": 0.582, "27th_size": 2.013}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -756,7 +754,6 @@
           <t>{"number": 321, "mean_size": 1.716, "median_size": 0.877, "25th_size": 0.585, "27th_size": 1.965}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -836,7 +833,6 @@
           <t>{"number": 314, "mean_size": 1.738, "median_size": 0.879, "25th_size": 0.585, "27th_size": 1.994}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -916,7 +912,6 @@
           <t>{"number": 265, "mean_size": 1.591, "median_size": 0.918, "25th_size": 0.574, "27th_size": 1.736}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -996,7 +991,6 @@
           <t>{"number": 267, "mean_size": 1.572, "median_size": 0.913, "25th_size": 0.564, "27th_size": 1.724}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1076,7 +1070,6 @@
           <t>{"number": 262, "mean_size": 1.591, "median_size": 0.889, "25th_size": 0.563, "27th_size": 1.744}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1156,7 +1149,6 @@
           <t>{"number": 261, "mean_size": 1.585, "median_size": 0.886, "25th_size": 0.564, "27th_size": 1.694}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1236,7 +1228,6 @@
           <t>{"number": 266, "mean_size": 1.706, "median_size": 1.001, "25th_size": 0.626, "27th_size": 1.893}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1316,7 +1307,6 @@
           <t>{"number": 269, "mean_size": 1.69, "median_size": 0.989, "25th_size": 0.627, "27th_size": 1.869}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1396,7 +1386,6 @@
           <t>{"number": 272, "mean_size": 1.673, "median_size": 0.987, "25th_size": 0.632, "27th_size": 1.836}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1476,7 +1465,6 @@
           <t>{"number": 272, "mean_size": 1.671, "median_size": 0.949, "25th_size": 0.632, "27th_size": 1.824}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1556,7 +1544,6 @@
           <t>{"number": 280, "mean_size": 1.598, "median_size": 0.901, "25th_size": 0.62, "27th_size": 1.741}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1636,7 +1623,6 @@
           <t>{"number": 276, "mean_size": 1.61, "median_size": 0.935, "25th_size": 0.624, "27th_size": 1.772}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1716,7 +1702,6 @@
           <t>{"number": 280, "mean_size": 1.594, "median_size": 0.934, "25th_size": 0.623, "27th_size": 1.75}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1796,7 +1781,6 @@
           <t>{"number": 280, "mean_size": 1.592, "median_size": 0.897, "25th_size": 0.622, "27th_size": 1.718}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1876,7 +1860,6 @@
           <t>{"number": 300, "mean_size": 1.512, "median_size": 0.887, "25th_size": 0.568, "27th_size": 1.795}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1956,7 +1939,6 @@
           <t>{"number": 300, "mean_size": 1.514, "median_size": 0.859, "25th_size": 0.573, "27th_size": 1.796}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2036,7 +2018,6 @@
           <t>{"number": 305, "mean_size": 1.499, "median_size": 0.858, "25th_size": 0.572, "27th_size": 1.758}</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2116,7 +2097,6 @@
           <t>{"number": 306, "mean_size": 1.489, "median_size": 0.859, "25th_size": 0.573, "27th_size": 1.777}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2196,7 +2176,6 @@
           <t>{"number": 282, "mean_size": 1.657, "median_size": 0.975, "25th_size": 0.647, "27th_size": 1.899}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2276,7 +2255,6 @@
           <t>{"number": 280, "mean_size": 1.666, "median_size": 0.951, "25th_size": 0.652, "27th_size": 1.891}</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2356,7 +2334,6 @@
           <t>{"number": 282, "mean_size": 1.663, "median_size": 0.984, "25th_size": 0.651, "27th_size": 1.903}</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2436,7 +2413,6 @@
           <t>{"number": 284, "mean_size": 1.652, "median_size": 0.938, "25th_size": 0.652, "27th_size": 1.89}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2516,7 +2492,6 @@
           <t>{"number": 282, "mean_size": 1.495, "median_size": 0.821, "25th_size": 0.54, "27th_size": 1.566}</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2596,7 +2571,6 @@
           <t>{"number": 268, "mean_size": 1.541, "median_size": 0.844, "25th_size": 0.548, "27th_size": 1.62}</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2676,7 +2650,6 @@
           <t>{"number": 273, "mean_size": 1.528, "median_size": 0.831, "25th_size": 0.547, "27th_size": 1.605}</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2756,7 +2729,6 @@
           <t>{"number": 282, "mean_size": 1.496, "median_size": 0.807, "25th_size": 0.539, "27th_size": 1.6}</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2836,7 +2808,6 @@
           <t>{"number": 778, "mean_size": 2.035, "median_size": 1.195, "25th_size": 0.78, "27th_size": 2.446}</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2916,7 +2887,6 @@
           <t>{"number": 785, "mean_size": 2.015, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.398}</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2996,7 +2966,6 @@
           <t>{"number": 777, "mean_size": 2.029, "median_size": 1.198, "25th_size": 0.78, "27th_size": 2.431}</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3076,7 +3045,6 @@
           <t>{"number": 778, "mean_size": 2.033, "median_size": 1.226, "25th_size": 0.78, "27th_size": 2.411}</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3156,7 +3124,6 @@
           <t>{"number": 808, "mean_size": 1.883, "median_size": 1.212, "25th_size": 0.805, "27th_size": 2.263}</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3236,7 +3203,6 @@
           <t>{"number": 820, "mean_size": 1.858, "median_size": 1.21, "25th_size": 0.766, "27th_size": 2.217}</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3316,7 +3282,6 @@
           <t>{"number": 806, "mean_size": 1.884, "median_size": 1.21, "25th_size": 0.8, "27th_size": 2.263}</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3396,7 +3361,6 @@
           <t>{"number": 800, "mean_size": 1.896, "median_size": 1.233, "25th_size": 0.807, "27th_size": 2.27}</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3476,7 +3440,6 @@
           <t>{"number": 709, "mean_size": 2.235, "median_size": 1.265, "25th_size": 0.797, "27th_size": 2.489}</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3556,7 +3519,6 @@
           <t>{"number": 702, "mean_size": 2.257, "median_size": 1.257, "25th_size": 0.777, "27th_size": 2.518}</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3636,7 +3598,6 @@
           <t>{"number": 701, "mean_size": 2.258, "median_size": 1.249, "25th_size": 0.799, "27th_size": 2.546}</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3716,7 +3677,6 @@
           <t>{"number": 700, "mean_size": 2.259, "median_size": 1.266, "25th_size": 0.79, "27th_size": 2.547}</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3796,7 +3756,6 @@
           <t>{"number": 751, "mean_size": 2.082, "median_size": 1.362, "25th_size": 0.82, "27th_size": 2.5}</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3876,7 +3835,6 @@
           <t>{"number": 755, "mean_size": 2.074, "median_size": 1.33, "25th_size": 0.818, "27th_size": 2.505}</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3956,7 +3914,6 @@
           <t>{"number": 744, "mean_size": 2.101, "median_size": 1.369, "25th_size": 0.822, "27th_size": 2.531}</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4036,7 +3993,6 @@
           <t>{"number": 745, "mean_size": 2.095, "median_size": 1.379, "25th_size": 0.822, "27th_size": 2.5}</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4116,7 +4072,6 @@
           <t>{"number": 758, "mean_size": 2.102, "median_size": 1.211, "25th_size": 0.803, "27th_size": 2.462}</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4196,7 +4151,6 @@
           <t>{"number": 749, "mean_size": 2.125, "median_size": 1.241, "25th_size": 0.798, "27th_size": 2.47}</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4276,7 +4230,6 @@
           <t>{"number": 755, "mean_size": 2.112, "median_size": 1.24, "25th_size": 0.756, "27th_size": 2.458}</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4356,7 +4309,6 @@
           <t>{"number": 753, "mean_size": 2.116, "median_size": 1.233, "25th_size": 0.798, "27th_size": 2.445}</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4436,7 +4388,6 @@
           <t>{"number": 805, "mean_size": 1.77, "median_size": 1.175, "25th_size": 0.784, "27th_size": 2.028}</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4516,7 +4467,6 @@
           <t>{"number": 798, "mean_size": 1.782, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.04}</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4596,7 +4546,6 @@
           <t>{"number": 803, "mean_size": 1.777, "median_size": 1.18, "25th_size": 0.787, "27th_size": 2.015}</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4676,7 +4625,6 @@
           <t>{"number": 797, "mean_size": 1.785, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.072}</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4756,7 +4704,6 @@
           <t>{"number": 831, "mean_size": 2.199, "median_size": 1.318, "25th_size": 0.811, "27th_size": 2.487}</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4836,7 +4783,6 @@
           <t>{"number": 839, "mean_size": 2.182, "median_size": 1.273, "25th_size": 0.806, "27th_size": 2.447}</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4916,7 +4862,6 @@
           <t>{"number": 830, "mean_size": 2.198, "median_size": 1.322, "25th_size": 0.813, "27th_size": 2.454}</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4996,7 +4941,6 @@
           <t>{"number": 836, "mean_size": 2.192, "median_size": 1.323, "25th_size": 0.814, "27th_size": 2.478}</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5076,7 +5020,6 @@
           <t>{"number": 787, "mean_size": 2.115, "median_size": 1.269, "25th_size": 0.761, "27th_size": 2.41}</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5156,7 +5099,6 @@
           <t>{"number": 793, "mean_size": 2.102, "median_size": 1.245, "25th_size": 0.763, "27th_size": 2.422}</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5236,7 +5178,6 @@
           <t>{"number": 793, "mean_size": 2.098, "median_size": 1.244, "25th_size": 0.763, "27th_size": 2.389}</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5316,7 +5257,6 @@
           <t>{"number": 788, "mean_size": 2.112, "median_size": 1.282, "25th_size": 0.774, "27th_size": 2.433}</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5396,7 +5336,6 @@
           <t>{"number": 759, "mean_size": 1.991, "median_size": 1.125, "25th_size": 0.734, "27th_size": 2.126}</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5476,7 +5415,6 @@
           <t>{"number": 762, "mean_size": 1.984, "median_size": 1.126, "25th_size": 0.728, "27th_size": 2.155}</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5556,7 +5494,6 @@
           <t>{"number": 763, "mean_size": 1.987, "median_size": 1.129, "25th_size": 0.736, "27th_size": 2.118}</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5636,7 +5573,6 @@
           <t>{"number": 759, "mean_size": 1.992, "median_size": 1.164, "25th_size": 0.78, "27th_size": 2.11}</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5716,7 +5652,6 @@
           <t>{"number": 814, "mean_size": 2.091, "median_size": 1.279, "25th_size": 0.774, "27th_size": 2.365}</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5796,7 +5731,6 @@
           <t>{"number": 820, "mean_size": 2.09, "median_size": 1.256, "25th_size": 0.782, "27th_size": 2.372}</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5876,7 +5810,6 @@
           <t>{"number": 816, "mean_size": 2.099, "median_size": 1.285, "25th_size": 0.791, "27th_size": 2.37}</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5956,7 +5889,6 @@
           <t>{"number": 824, "mean_size": 2.085, "median_size": 1.263, "25th_size": 0.79, "27th_size": 2.37}</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6036,7 +5968,6 @@
           <t>{"number": 821, "mean_size": 1.996, "median_size": 1.146, "25th_size": 0.772, "27th_size": 2.235}</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6116,7 +6047,6 @@
           <t>{"number": 822, "mean_size": 1.998, "median_size": 1.149, "25th_size": 0.78, "27th_size": 2.251}</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6196,7 +6126,6 @@
           <t>{"number": 827, "mean_size": 1.991, "median_size": 1.147, "25th_size": 0.789, "27th_size": 2.214}</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6276,7 +6205,6 @@
           <t>{"number": 820, "mean_size": 1.996, "median_size": 1.148, "25th_size": 0.78, "27th_size": 2.195}</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6356,7 +6284,6 @@
           <t>{"number": 848, "mean_size": 1.94, "median_size": 1.148, "25th_size": 0.786, "27th_size": 2.154}</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6436,7 +6363,6 @@
           <t>{"number": 856, "mean_size": 1.93, "median_size": 1.164, "25th_size": 0.797, "27th_size": 2.144}</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6516,7 +6442,6 @@
           <t>{"number": 855, "mean_size": 1.933, "median_size": 1.171, "25th_size": 0.796, "27th_size": 2.15}</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6596,7 +6521,6 @@
           <t>{"number": 856, "mean_size": 1.931, "median_size": 1.145, "25th_size": 0.797, "27th_size": 2.145}</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6676,7 +6600,6 @@
           <t>{"number": 750, "mean_size": 1.999, "median_size": 1.232, "25th_size": 0.758, "27th_size": 2.275}</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6756,7 +6679,6 @@
           <t>{"number": 739, "mean_size": 2.024, "median_size": 1.234, "25th_size": 0.768, "27th_size": 2.303}</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -6836,7 +6758,6 @@
           <t>{"number": 747, "mean_size": 2.006, "median_size": 1.234, "25th_size": 0.759, "27th_size": 2.289}</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6916,7 +6837,6 @@
           <t>{"number": 753, "mean_size": 1.997, "median_size": 1.226, "25th_size": 0.759, "27th_size": 2.271}</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6996,7 +6916,6 @@
           <t>{"number": 745, "mean_size": 2.047, "median_size": 1.242, "25th_size": 0.81, "27th_size": 2.359}</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7076,7 +6995,6 @@
           <t>{"number": 747, "mean_size": 2.045, "median_size": 1.218, "25th_size": 0.812, "27th_size": 2.36}</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7156,7 +7074,6 @@
           <t>{"number": 739, "mean_size": 2.061, "median_size": 1.238, "25th_size": 0.811, "27th_size": 2.363}</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7236,7 +7153,6 @@
           <t>{"number": 742, "mean_size": 2.057, "median_size": 1.218, "25th_size": 0.812, "27th_size": 2.392}</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7316,7 +7232,6 @@
           <t>{"number": 750, "mean_size": 2.157, "median_size": 1.359, "25th_size": 0.805, "27th_size": 2.456}</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7396,7 +7311,6 @@
           <t>{"number": 765, "mean_size": 2.13, "median_size": 1.339, "25th_size": 0.784, "27th_size": 2.457}</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7476,7 +7390,6 @@
           <t>{"number": 760, "mean_size": 2.14, "median_size": 1.36, "25th_size": 0.784, "27th_size": 2.458}</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7556,7 +7469,6 @@
           <t>{"number": 765, "mean_size": 2.125, "median_size": 1.317, "25th_size": 0.784, "27th_size": 2.439}</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7636,7 +7548,6 @@
           <t>{"number": 733, "mean_size": 2.012, "median_size": 1.221, "25th_size": 0.779, "27th_size": 2.339}</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7716,7 +7627,6 @@
           <t>{"number": 728, "mean_size": 2.02, "median_size": 1.218, "25th_size": 0.78, "27th_size": 2.36}</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -7796,7 +7706,6 @@
           <t>{"number": 725, "mean_size": 2.026, "median_size": 1.247, "25th_size": 0.78, "27th_size": 2.378}</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -7876,7 +7785,6 @@
           <t>{"number": 733, "mean_size": 2.006, "median_size": 1.238, "25th_size": 0.78, "27th_size": 2.323}</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -7956,7 +7864,6 @@
           <t>{"number": 686, "mean_size": 2.188, "median_size": 1.306, "25th_size": 0.784, "27th_size": 2.482}</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8036,7 +7943,6 @@
           <t>{"number": 681, "mean_size": 2.206, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.506}</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8116,7 +8022,6 @@
           <t>{"number": 683, "mean_size": 2.203, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.515}</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8196,7 +8101,6 @@
           <t>{"number": 687, "mean_size": 2.189, "median_size": 1.304, "25th_size": 0.803, "27th_size": 2.509}</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8276,7 +8180,6 @@
           <t>{"number": 788, "mean_size": 2.109, "median_size": 1.23, "25th_size": 0.819, "27th_size": 2.438}</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8356,7 +8259,6 @@
           <t>{"number": 787, "mean_size": 2.113, "median_size": 1.243, "25th_size": 0.814, "27th_size": 2.461}</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8436,7 +8338,6 @@
           <t>{"number": 790, "mean_size": 2.103, "median_size": 1.241, "25th_size": 0.821, "27th_size": 2.436}</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8516,7 +8417,6 @@
           <t>{"number": 789, "mean_size": 2.105, "median_size": 1.234, "25th_size": 0.814, "27th_size": 2.44}</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8596,7 +8496,6 @@
           <t>{"number": 804, "mean_size": 1.879, "median_size": 1.221, "25th_size": 0.78, "27th_size": 2.231}</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8676,7 +8575,6 @@
           <t>{"number": 807, "mean_size": 1.877, "median_size": 1.228, "25th_size": 0.78, "27th_size": 2.195}</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8756,7 +8654,6 @@
           <t>{"number": 819, "mean_size": 1.853, "median_size": 1.216, "25th_size": 0.781, "27th_size": 2.147}</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8836,7 +8733,8742 @@
           <t>{"number": 814, "mean_size": 1.863, "median_size": 1.217, "25th_size": 0.781, "27th_size": 2.145}</t>
         </is>
       </c>
-      <c r="S105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>e105</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>e105_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>IMG_3174.jpeg</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0.6505681818181818</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
+      </c>
+      <c r="P106" t="n">
+        <v>30876.0011166835</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.03528</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>{"number": 314, "mean_size": 1.74, "median_size": 0.863, "25th_size": 0.582, "27th_size": 1.993}</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.67888331648898}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>e106</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>e106_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>IMG_3174HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0.6505681818181818</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>30876.0011166835</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.03523</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>{"number": 314, "mean_size": 1.74, "median_size": 0.885, "25th_size": 0.582, "27th_size": 2.011}</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.67888331648898}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>e107</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>e107_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>IMG_3174HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0.6473721590909091</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>30882.64844822766</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.03518</v>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>{"number": 318, "mean_size": 1.721, "median_size": 0.884, "25th_size": 0.585, "27th_size": 1.993}</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.03155177233427}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>e108</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>e108_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>IMG_3174VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0.6473721590909091</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>30882.64844822766</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.03527</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>{"number": 312, "mean_size": 1.745, "median_size": 0.879, "25th_size": 0.585, "27th_size": 2.002}</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.03155177233427}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>e109</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>e109_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>IMG_3175.jpeg</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0.6931735657225854</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>30876.06513824812</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.02543</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>{"number": 265, "mean_size": 1.59, "median_size": 0.903, "25th_size": 0.592, "27th_size": 1.762}</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.61486175187915}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>e110</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>e110_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>IMG_3175HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0.6870007262164125</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>30881.72364530302</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.02525</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>{"number": 268, "mean_size": 1.569, "median_size": 0.886, "25th_size": 0.564, "27th_size": 1.709}</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.95635469697713}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>e111</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>e111_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>IMG_3175HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0.6877269426289034</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
+        <v>30881.90508346815</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.02551</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>{"number": 260, "mean_size": 1.602, "median_size": 0.906, "25th_size": 0.563, "27th_size": 1.741}</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.77491653183674}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>e112</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>e112_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>IMG_3175VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0.686637618010167</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
+      </c>
+      <c r="P113" t="n">
+        <v>30881.63271026076</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.02526</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>{"number": 257, "mean_size": 1.617, "median_size": 0.908, "25th_size": 0.571, "27th_size": 1.761}</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 86.04728973922788}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>e113</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>e113_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>IMG_3176.jpeg</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0.6973495702005731</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>30879.6063724445</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.02834</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>{"number": 269, "mean_size": 1.692, "median_size": 0.998, "25th_size": 0.626, "27th_size": 1.879}</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.07362755549012}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>e114</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>e114_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>IMG_3176HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0.6969914040114613</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>30879.51583158432</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.02831</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>{"number": 266, "mean_size": 1.702, "median_size": 0.974, "25th_size": 0.627, "27th_size": 1.87}</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.16416841567118}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>e115</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>e115_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>IMG_3176HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0.6912607449856734</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>30878.0479830331</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.02835</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>{"number": 274, "mean_size": 1.663, "median_size": 0.987, "25th_size": 0.632, "27th_size": 1.817}</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.6320169668984}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>e116</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>e116_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>IMG_3176VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0.6905444126074498</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
+      </c>
+      <c r="P117" t="n">
+        <v>30877.86192804014</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.02839</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>{"number": 272, "mean_size": 1.669, "median_size": 0.949, "25th_size": 0.624, "27th_size": 1.821}</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.81807195984914}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>e117</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>e117_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>IMG_3177.jpeg</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0.7112396096855801</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>30881.47596408387</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.02801</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>{"number": 283, "mean_size": 1.583, "median_size": 0.929, "25th_size": 0.62, "27th_size": 1.716}</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 86.20403591612131}</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>e118</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>e118_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>IMG_3177HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0.7065413805565595</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>30880.32570482924</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.02803</v>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
+          <t>{"number": 276, "mean_size": 1.611, "median_size": 0.935, "25th_size": 0.624, "27th_size": 1.764}</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.35429517075372}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>e119</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>e119_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>IMG_3177HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0.7076255872786411</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>30880.59318401445</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.02806</v>
+      </c>
+      <c r="R120" t="inlineStr">
+        <is>
+          <t>{"number": 278, "mean_size": 1.603, "median_size": 0.934, "25th_size": 0.623, "27th_size": 1.737}</t>
+        </is>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.08681598554318}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>e120</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>e120_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>IMG_3177VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>0.7058185760751716</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>30880.14670017295</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0.02803</v>
+      </c>
+      <c r="R121" t="inlineStr">
+        <is>
+          <t>{"number": 276, "mean_size": 1.612, "median_size": 0.936, "25th_size": 0.624, "27th_size": 1.746}</t>
+        </is>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.53329982704145}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>e121</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>e121_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>IMG_3178.jpeg</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>0.7107156380159031</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>30880.34431956365</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.02284</v>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>{"number": 301, "mean_size": 1.509, "median_size": 0.865, "25th_size": 0.568, "27th_size": 1.78}</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.33568043633939}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>e122</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>e122_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>IMG_3178HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0.7054146156758804</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>30879.02677402039</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.02289</v>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>{"number": 296, "mean_size": 1.526, "median_size": 0.863, "25th_size": 0.573, "27th_size": 1.8}</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.65322597960277}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>e123</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>e123_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>IMG_3178HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0.7057932601287391</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>30879.12186999207</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.02295</v>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>{"number": 303, "mean_size": 1.504, "median_size": 0.858, "25th_size": 0.572, "27th_size": 1.788}</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.55813000792054}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>e124</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>e124_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>IMG_3178VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>0.7050359712230215</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
+      </c>
+      <c r="P125" t="n">
+        <v>30878.93152479172</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.02282</v>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>{"number": 306, "mean_size": 1.49, "median_size": 0.861, "25th_size": 0.573, "27th_size": 1.758}</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.7484752082754}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>e125</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>e125_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>IMG_3179.jpeg</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0.7128263337116912</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
+        <v>0</v>
+      </c>
+      <c r="P126" t="n">
+        <v>30880.99210515639</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.0281</v>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>{"number": 287, "mean_size": 1.635, "median_size": 0.96, "25th_size": 0.647, "27th_size": 1.883}</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 86.68789484360417}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>e126</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>e126_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>IMG_3179HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0.7079076806659099</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>30879.78327809106</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.02829</v>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>{"number": 284, "mean_size": 1.65, "median_size": 0.947, "25th_size": 0.65, "27th_size": 1.875}</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.89672190893039}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>e127</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>e127_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>IMG_3179HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0.7086643965191071</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
+        <v>0</v>
+      </c>
+      <c r="P128" t="n">
+        <v>30879.97089110463</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.02816</v>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>{"number": 281, "mean_size": 1.667, "median_size": 0.984, "25th_size": 0.651, "27th_size": 1.893}</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.70910889536842}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>e128</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>e128_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>IMG_3179VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0.7075293227393114</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>30879.68924576624</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.02835</v>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
+          <t>{"number": 283, "mean_size": 1.656, "median_size": 0.949, "25th_size": 0.64, "27th_size": 1.883}</t>
+        </is>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.99075423374987}</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>e129</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>e129_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>IMG_3180.jpeg</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0.7420202778820879</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>30882.17255949941</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0.02256</v>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
+          <t>{"number": 279, "mean_size": 1.509, "median_size": 0.821, "25th_size": 0.54, "27th_size": 1.579}</t>
+        </is>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.50744050058185}</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>e130</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>e130_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>IMG_3180HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0.7315058205031919</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>30879.69677390383</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0.02235</v>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
+          <t>{"number": 269, "mean_size": 1.538, "median_size": 0.861, "25th_size": 0.548, "27th_size": 1.618}</t>
+        </is>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.98322609615926}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>e131</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>e131_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>IMG_3180HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0.7330078858430342</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>30880.05699144215</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.02255</v>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
+          <t>{"number": 273, "mean_size": 1.53, "median_size": 0.841, "25th_size": 0.547, "27th_size": 1.605}</t>
+        </is>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.62300855784731}</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>e132</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>e132_6.0x8.0_11519-20____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>11519-20_DallasWhite_unknown</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>IMG_3180VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0.7431468268869695</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>DallasWhite</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>11519-20</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
+      </c>
+      <c r="P133" t="n">
+        <v>30882.43160739048</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>0.02259</v>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
+          <t>{"number": 283, "mean_size": 1.495, "median_size": 0.828, "25th_size": 0.539, "27th_size": 1.581}</t>
+        </is>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.24839260951457}</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>e133</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>e133_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>IMG_3070.jpeg</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0.5298372513562387</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
+        <v>147.05581</v>
+      </c>
+      <c r="P134" t="n">
+        <v>30730.77178157124</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0.10607</v>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
+          <t>{"number": 774, "mean_size": 2.038, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.447}</t>
+        </is>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.85240842875278}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>e134</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>e134_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>IMG_3070HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0.5298372513562387</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
+        <v>149.58267</v>
+      </c>
+      <c r="P135" t="n">
+        <v>30728.24492157124</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0.10618</v>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
+          <t>{"number": 782, "mean_size": 2.021, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.429}</t>
+        </is>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.85240842875278}</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>e135</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>e135_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>IMG_3070HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>0.5298372513562387</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
+        <v>143.61993</v>
+      </c>
+      <c r="P136" t="n">
+        <v>30734.20766157124</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0.1062</v>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
+          <t>{"number": 782, "mean_size": 2.02, "median_size": 1.196, "25th_size": 0.78, "27th_size": 2.413}</t>
+        </is>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.85240842875278}</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>e136</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>e136_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>IMG_3070VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0.5301989150090416</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
+        <v>141.3113</v>
+      </c>
+      <c r="P137" t="n">
+        <v>30736.63883149347</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.10619</v>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
+          <t>{"number": 791, "mean_size": 2.002, "median_size": 1.195, "25th_size": 0.78, "27th_size": 2.352}</t>
+        </is>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.72986850652067}</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>e137</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>e137_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>IMG_3071.jpeg</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5446043165467626</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
+        <v>99.6079</v>
+      </c>
+      <c r="P138" t="n">
+        <v>30783.94164811891</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.08742999999999999</v>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
+          <t>{"number": 814, "mean_size": 1.872, "median_size": 1.217, "25th_size": 0.773, "27th_size": 2.264}</t>
+        </is>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 84.1304518810782}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>e138</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>e138_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>IMG_3071HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
+        <v>95.43622999999999</v>
+      </c>
+      <c r="P139" t="n">
+        <v>30787.77891453241</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.08727</v>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
+          <t>{"number": 817, "mean_size": 1.863, "median_size": 1.21, "25th_size": 0.76, "27th_size": 2.212}</t>
+        </is>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 84.46485546758142}</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>e139</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>e139_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>IMG_3071HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
+        <v>94.07308</v>
+      </c>
+      <c r="P140" t="n">
+        <v>30789.14206453241</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.08731999999999999</v>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
+          <t>{"number": 810, "mean_size": 1.879, "median_size": 1.21, "25th_size": 0.798, "27th_size": 2.264}</t>
+        </is>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 84.46485546758142}</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>e140</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>e140_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>IMG_3071VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>0.5435251798561151</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
+        <v>95.93470000000001</v>
+      </c>
+      <c r="P141" t="n">
+        <v>30787.28044453241</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.08722000000000001</v>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
+          <t>{"number": 800, "mean_size": 1.898, "median_size": 1.225, "25th_size": 0.807, "27th_size": 2.272}</t>
+        </is>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 84.46485546758142}</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>e141</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>e141_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>IMG_3072.jpeg</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0.5559593023255814</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O142" t="n">
+        <v>127.19152</v>
+      </c>
+      <c r="P142" t="n">
+        <v>30749.208633787</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0.13442</v>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
+          <t>{"number": 708, "mean_size": 2.237, "median_size": 1.271, "25th_size": 0.797, "27th_size": 2.478}</t>
+        </is>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.27984621299498}</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>e142</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>e142_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>IMG_3072HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0.5563226744186046</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
+        <v>136.53288</v>
+      </c>
+      <c r="P143" t="n">
+        <v>30739.98647696882</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0.1346</v>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
+          <t>{"number": 700, "mean_size": 2.262, "median_size": 1.273, "25th_size": 0.785, "27th_size": 2.539}</t>
+        </is>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.16064303117669}</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>e143</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>e143_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>IMG_3072HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>0.5541424418604651</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
+        <v>126.96832</v>
+      </c>
+      <c r="P144" t="n">
+        <v>30748.83229617844</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.1347</v>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
+          <t>{"number": 705, "mean_size": 2.25, "median_size": 1.249, "25th_size": 0.799, "27th_size": 2.527}</t>
+        </is>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.87938382155333}</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>e144</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>e144_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>IMG_3072VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>0.5545058139534884</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
+        <v>135.96291</v>
+      </c>
+      <c r="P145" t="n">
+        <v>30739.95808531235</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.13461</v>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
+          <t>{"number": 702, "mean_size": 2.255, "median_size": 1.263, "25th_size": 0.783, "27th_size": 2.538}</t>
+        </is>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.75900468764223}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>e145</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>e145_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>IMG_3073.jpeg</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>0.6900557620817844</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
+      </c>
+      <c r="P146" t="n">
+        <v>30880.23156037138</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0.10486</v>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
+          <t>{"number": 744, "mean_size": 2.097, "median_size": 1.371, "25th_size": 0.821, "27th_size": 2.496}</t>
+        </is>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.4484396286093}</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>e146</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>e146_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>IMG_3073HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>0.6919144981412639</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
+        <v>6.13349</v>
+      </c>
+      <c r="P147" t="n">
+        <v>30874.56727644441</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0.10493</v>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
+          <t>{"number": 758, "mean_size": 2.07, "median_size": 1.331, "25th_size": 0.819, "27th_size": 2.471}</t>
+        </is>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 86.9792335555885}</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>e147</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>e147_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>IMG_3073HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>0.6895910780669146</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
+        <v>7.46154</v>
+      </c>
+      <c r="P148" t="n">
+        <v>30872.65212562288</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0.10486</v>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
+          <t>{"number": 747, "mean_size": 2.093, "median_size": 1.351, "25th_size": 0.822, "27th_size": 2.522}</t>
+        </is>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.56633437711145}</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>e148</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>e148_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>IMG_3073VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>0.6895910780669146</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
+        <v>6.28562</v>
+      </c>
+      <c r="P149" t="n">
+        <v>30873.82804562288</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0.10483</v>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
+          <t>{"number": 746, "mean_size": 2.092, "median_size": 1.379, "25th_size": 0.822, "27th_size": 2.501}</t>
+        </is>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.56633437711145}</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>e149</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>e149_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>IMG_3074.jpeg</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>0.7578632051922117</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>30883.99233920229</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0.11141</v>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
+          <t>{"number": 754, "mean_size": 2.109, "median_size": 1.233, "25th_size": 0.803, "27th_size": 2.434}</t>
+        </is>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 83.6876607977003}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>e150</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>e150_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>IMG_3074HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>0.7538691962056915</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>30883.1032335073</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0.11159</v>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
+          <t>{"number": 750, "mean_size": 2.123, "median_size": 1.241, "25th_size": 0.779, "27th_size": 2.465}</t>
+        </is>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 84.57676649269767}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>e151</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>e151_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>IMG_3074HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>0.7543684473290065</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O152" t="n">
+        <v>0</v>
+      </c>
+      <c r="P152" t="n">
+        <v>30883.21514453241</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.11129</v>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
+          <t>{"number": 755, "mean_size": 2.112, "median_size": 1.24, "25th_size": 0.758, "27th_size": 2.458}</t>
+        </is>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 84.46485546758142}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>e152</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>e152_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>IMG_3074VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>0.7548676984523215</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P153" t="n">
+        <v>30883.32683358528</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0.11152</v>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
+          <t>{"number": 757, "mean_size": 2.107, "median_size": 1.219, "25th_size": 0.787, "27th_size": 2.433}</t>
+        </is>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 84.35316641471401}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>e153</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>e153_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>IMG_3075.jpeg</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>0.7755610972568578</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>30879.31160347804</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0.0814</v>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
+          <t>{"number": 809, "mean_size": 1.761, "median_size": 1.156, "25th_size": 0.784, "27th_size": 2.02}</t>
+        </is>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.36839652195486}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>e154</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>e154_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>IMG_3075HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>0.771571072319202</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>30878.39528144846</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.08158</v>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
+          <t>{"number": 805, "mean_size": 1.771, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.014}</t>
+        </is>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.28471855153475}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>e155</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>e155_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>IMG_3075HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>0.773067331670823</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="n">
+        <v>30878.74056524453</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0.08159</v>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
+          <t>{"number": 803, "mean_size": 1.776, "median_size": 1.18, "25th_size": 0.787, "27th_size": 2.014}</t>
+        </is>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.93943475546303}</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>e156</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>e156_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>IMG_3075VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>0.771571072319202</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O157" t="n">
+        <v>6.74488</v>
+      </c>
+      <c r="P157" t="n">
+        <v>30871.65040144846</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0.08155</v>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
+          <t>{"number": 797, "mean_size": 1.786, "median_size": 1.182, "25th_size": 0.788, "27th_size": 2.075}</t>
+        </is>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.28471855153475}</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>e157</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>e157_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>IMG_3076.jpeg</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>0.9192660550458716</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N158" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="n">
+        <v>30882.31359141995</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0.13677</v>
+      </c>
+      <c r="R158" t="inlineStr">
+        <is>
+          <t>{"number": 835, "mean_size": 2.196, "median_size": 1.318, "25th_size": 0.811, "27th_size": 2.467}</t>
+        </is>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.36640858004547}</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>e158</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>e158_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>IMG_3076HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9155963302752294</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="n">
+        <v>30881.62792020915</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0.13595</v>
+      </c>
+      <c r="R159" t="inlineStr">
+        <is>
+          <t>{"number": 842, "mean_size": 2.176, "median_size": 1.27, "25th_size": 0.795, "27th_size": 2.444}</t>
+        </is>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 86.05207979084418}</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>e159</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>e159_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>IMG_3076HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>0.9168195718654434</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N160" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O160" t="n">
+        <v>6.61009</v>
+      </c>
+      <c r="P160" t="n">
+        <v>30875.2473023198</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0.1369</v>
+      </c>
+      <c r="R160" t="inlineStr">
+        <is>
+          <t>{"number": 830, "mean_size": 2.198, "median_size": 1.32, "25th_size": 0.813, "27th_size": 2.454}</t>
+        </is>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.82260768019238}</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>e160</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>e160_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>IMG_3076VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>0.9155963302752294</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N161" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O161" t="n">
+        <v>0</v>
+      </c>
+      <c r="P161" t="n">
+        <v>30881.62792020915</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0.13699</v>
+      </c>
+      <c r="R161" t="inlineStr">
+        <is>
+          <t>{"number": 838, "mean_size": 2.187, "median_size": 1.321, "25th_size": 0.814, "27th_size": 2.476}</t>
+        </is>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 86.05207979084418}</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>e161</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>e161_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>IMG_3077.jpeg</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>0.6625310173697271</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N162" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>30875.88662542608</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0.11203</v>
+      </c>
+      <c r="R162" t="inlineStr">
+        <is>
+          <t>{"number": 787, "mean_size": 2.114, "median_size": 1.253, "25th_size": 0.761, "27th_size": 2.421}</t>
+        </is>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.7933745739174}</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>e162</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>e162_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>IMG_3077HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>0.6604631927212572</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N163" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O163" t="n">
+        <v>0</v>
+      </c>
+      <c r="P163" t="n">
+        <v>30883.89853906569</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0.1133</v>
+      </c>
+      <c r="R163" t="inlineStr">
+        <is>
+          <t>{"number": 793, "mean_size": 2.102, "median_size": 1.243, "25th_size": 0.763, "27th_size": 2.419}</t>
+        </is>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 83.78146093430502}</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>e163</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>e163_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>IMG_3077HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>0.6604631927212572</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O164" t="n">
+        <v>0</v>
+      </c>
+      <c r="P164" t="n">
+        <v>30883.89853906569</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0.11324</v>
+      </c>
+      <c r="R164" t="inlineStr">
+        <is>
+          <t>{"number": 789, "mean_size": 2.108, "median_size": 1.255, "25th_size": 0.763, "27th_size": 2.399}</t>
+        </is>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 83.78146093430502}</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>e164</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>e164_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>IMG_3077VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>0.663358147229115</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>30876.11539387192</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0.11312</v>
+      </c>
+      <c r="R165" t="inlineStr">
+        <is>
+          <t>{"number": 792, "mean_size": 2.105, "median_size": 1.263, "25th_size": 0.779, "27th_size": 2.395}</t>
+        </is>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.5646061280713}</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>e165</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>e165_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>IMG_3078.jpeg</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>0.5608789625360231</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N166" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O166" t="n">
+        <v>168.43174</v>
+      </c>
+      <c r="P166" t="n">
+        <v>30711.10673988387</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0.11495</v>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
+          <t>{"number": 760, "mean_size": 1.992, "median_size": 1.126, "25th_size": 0.734, "27th_size": 2.164}</t>
+        </is>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.14152011612666}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>e166</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>e166_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>IMG_3078HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>0.5612391930835735</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O167" t="n">
+        <v>160.80494</v>
+      </c>
+      <c r="P167" t="n">
+        <v>30718.84665058138</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0.11509</v>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
+          <t>{"number": 753, "mean_size": 2.0, "median_size": 1.125, "25th_size": 0.734, "27th_size": 2.167}</t>
+        </is>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.0284094186121}</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>e167</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>e167_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>IMG_3078HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>0.5594380403458213</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O168" t="n">
+        <v>172.49285</v>
+      </c>
+      <c r="P168" t="n">
+        <v>30706.59099997319</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0.11503</v>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
+          <t>{"number": 760, "mean_size": 1.988, "median_size": 1.129, "25th_size": 0.736, "27th_size": 2.125}</t>
+        </is>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.59615002680559}</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>e168</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>e168_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>IMG_3078VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>0.5597982708933718</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O169" t="n">
+        <v>167.86124</v>
+      </c>
+      <c r="P169" t="n">
+        <v>30711.33659664524</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0.11487</v>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
+          <t>{"number": 759, "mean_size": 1.992, "median_size": 1.163, "25th_size": 0.78, "27th_size": 2.12}</t>
+        </is>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 88.48216335475018}</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>e169</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>e169_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>IMG_3080.jpeg</t>
+        </is>
+      </c>
+      <c r="F170" t="n">
+        <v>0.5866920152091255</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N170" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O170" t="n">
+        <v>65.32598</v>
+      </c>
+      <c r="P170" t="n">
+        <v>30812.60578649169</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0.11387</v>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
+          <t>{"number": 825, "mean_size": 2.084, "median_size": 1.255, "25th_size": 0.782, "27th_size": 2.332}</t>
+        </is>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.7482335082989}</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>e170</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>e170_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>IMG_3080HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F171" t="n">
+        <v>0.5863117870722433</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N171" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O171" t="n">
+        <v>64.75629000000001</v>
+      </c>
+      <c r="P171" t="n">
+        <v>30813.05903377477</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0.11392</v>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
+          <t>{"number": 822, "mean_size": 2.086, "median_size": 1.256, "25th_size": 0.791, "27th_size": 2.361}</t>
+        </is>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.8646762252267}</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>e171</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>e171_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>IMG_3080HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>0.5863117870722433</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O172" t="n">
+        <v>65.22027</v>
+      </c>
+      <c r="P172" t="n">
+        <v>30812.59505377477</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0.11389</v>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
+          <t>{"number": 821, "mean_size": 2.09, "median_size": 1.285, "25th_size": 0.781, "27th_size": 2.366}</t>
+        </is>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.8646762252267}</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>e172</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>e172_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>IMG_3080VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>0.5866920152091255</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N173" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O173" t="n">
+        <v>64.37972000000001</v>
+      </c>
+      <c r="P173" t="n">
+        <v>30813.5520464917</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0.11392</v>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
+          <t>{"number": 823, "mean_size": 2.088, "median_size": 1.264, "25th_size": 0.79, "27th_size": 2.353}</t>
+        </is>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 89.7482335082989}</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>e173</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>e173_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>IMG_3081.jpeg</t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>0.5468861846814602</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O174" t="n">
+        <v>117.60186</v>
+      </c>
+      <c r="P174" t="n">
+        <v>30758.55918492749</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0.11649</v>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
+          <t>{"number": 821, "mean_size": 2.0, "median_size": 1.147, "25th_size": 0.798, "27th_size": 2.197}</t>
+        </is>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.51895507250346}</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>e174</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>e174_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>IMG_3081HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F175" t="n">
+        <v>0.5458124552612742</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O175" t="n">
+        <v>121.00615</v>
+      </c>
+      <c r="P175" t="n">
+        <v>30754.79446617844</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0.11663</v>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
+          <t>{"number": 824, "mean_size": 1.996, "median_size": 1.149, "25th_size": 0.788, "27th_size": 2.255}</t>
+        </is>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.87938382155333}</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>e175</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>e175_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>IMG_3081HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F176" t="n">
+        <v>0.5468861846814602</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O176" t="n">
+        <v>117.85055</v>
+      </c>
+      <c r="P176" t="n">
+        <v>30758.31049492749</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0.11641</v>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
+          <t>{"number": 812, "mean_size": 2.017, "median_size": 1.15, "25th_size": 0.798, "27th_size": 2.259}</t>
+        </is>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.51895507250346}</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>e176</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>e176_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>IMG_3081VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>0.5461703650680029</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O177" t="n">
+        <v>111.95596</v>
+      </c>
+      <c r="P177" t="n">
+        <v>30763.96503531235</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0.11637</v>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
+          <t>{"number": 819, "mean_size": 1.999, "median_size": 1.148, "25th_size": 0.797, "27th_size": 2.21}</t>
+        </is>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.75900468764223}</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>e177</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>e177_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>IMG_3082.jpeg</t>
+        </is>
+      </c>
+      <c r="F178" t="n">
+        <v>0.6336224700536969</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N178" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O178" t="n">
+        <v>28.30729</v>
+      </c>
+      <c r="P178" t="n">
+        <v>30848.56827884456</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0.11092</v>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
+          <t>{"number": 845, "mean_size": 1.944, "median_size": 1.157, "25th_size": 0.795, "27th_size": 2.157}</t>
+        </is>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 90.80443115543547}</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>e178</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>e178_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>IMG_3082HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>0.6319702602230484</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O179" t="n">
+        <v>27.84035</v>
+      </c>
+      <c r="P179" t="n">
+        <v>30848.559803787</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0.11098</v>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
+          <t>{"number": 855, "mean_size": 1.929, "median_size": 1.172, "25th_size": 0.797, "27th_size": 2.16}</t>
+        </is>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.27984621299498}</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>e179</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>e179_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>IMG_3082HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F180" t="n">
+        <v>0.6323833126807105</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O180" t="n">
+        <v>26.49108</v>
+      </c>
+      <c r="P180" t="n">
+        <v>30850.02827696882</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0.11104</v>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
+          <t>{"number": 852, "mean_size": 1.939, "median_size": 1.177, "25th_size": 0.796, "27th_size": 2.155}</t>
+        </is>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.16064303117669}</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>e180</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>e180_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>IMG_3082VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F181" t="n">
+        <v>0.6319702602230484</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O181" t="n">
+        <v>29.79989</v>
+      </c>
+      <c r="P181" t="n">
+        <v>30846.600263787</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0.11107</v>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
+          <t>{"number": 855, "mean_size": 1.931, "median_size": 1.145, "25th_size": 0.797, "27th_size": 2.167}</t>
+        </is>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.27984621299498}</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>e181</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>e181_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>IMG_3083.jpeg</t>
+        </is>
+      </c>
+      <c r="F182" t="n">
+        <v>0.59747493501671</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O182" t="n">
+        <v>9.55897</v>
+      </c>
+      <c r="P182" t="n">
+        <v>30867.12461738775</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0.10669</v>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
+          <t>{"number": 749, "mean_size": 1.998, "median_size": 1.204, "25th_size": 0.758, "27th_size": 2.28}</t>
+        </is>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 90.99641261224443}</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>e182</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>e182_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>IMG_3083HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F183" t="n">
+        <v>0.5959896026735982</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O183" t="n">
+        <v>6.17604</v>
+      </c>
+      <c r="P183" t="n">
+        <v>30870.05341752467</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0.10668</v>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>{"number": 738, "mean_size": 2.026, "median_size": 1.234, "25th_size": 0.76, "27th_size": 2.315}</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.45054247532534}</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>e183</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>e183_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>IMG_3083HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>0.5963609357593762</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N184" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O184" t="n">
+        <v>5.12829</v>
+      </c>
+      <c r="P184" t="n">
+        <v>30871.21501817342</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0.10669</v>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
+          <t>{"number": 748, "mean_size": 2.005, "median_size": 1.234, "25th_size": 0.759, "27th_size": 2.289}</t>
+        </is>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.33669182657185}</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>e184</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>e184_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>IMG_3083VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F185" t="n">
+        <v>0.5967322688451541</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O185" t="n">
+        <v>5.36474</v>
+      </c>
+      <c r="P185" t="n">
+        <v>30871.09220634821</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0.10676</v>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>{"number": 751, "mean_size": 1.999, "median_size": 1.226, "25th_size": 0.759, "27th_size": 2.272}</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 91.22305365178555}</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>e185</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>e185_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>IMG_3084.jpeg</t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>0.5695915279878971</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O186" t="n">
+        <v>54.90429</v>
+      </c>
+      <c r="P186" t="n">
+        <v>30827.7490678832</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0.10678</v>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>{"number": 745, "mean_size": 2.047, "median_size": 1.214, "25th_size": 0.81, "27th_size": 2.345}</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.02664211679176}</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>e186</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>e186_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>IMG_3084HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>0.56732223903177</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O187" t="n">
+        <v>53.41925</v>
+      </c>
+      <c r="P187" t="n">
+        <v>30828.55253431999</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0.10675</v>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>{"number": 742, "mean_size": 2.057, "median_size": 1.22, "25th_size": 0.783, "27th_size": 2.378}</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.70821567999997}</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>e187</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>e187_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>IMG_3084HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>0.5684568835098336</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O188" t="n">
+        <v>52.97488</v>
+      </c>
+      <c r="P188" t="n">
+        <v>30829.33871141995</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0.10659</v>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>{"number": 736, "mean_size": 2.068, "median_size": 1.25, "25th_size": 0.811, "27th_size": 2.372}</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.36640858004547}</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>e188</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>e188_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>IMG_3084VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>0.5680786686838124</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O189" t="n">
+        <v>57.89443</v>
+      </c>
+      <c r="P189" t="n">
+        <v>30824.30545326261</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0.10666</v>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>{"number": 739, "mean_size": 2.063, "median_size": 1.234, "25th_size": 0.812, "27th_size": 2.356}</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 85.48011673738164}</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>e189</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>e189_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>IMG_3085.jpeg</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.5303525990548892</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O190" t="n">
+        <v>52.01211</v>
+      </c>
+      <c r="P190" t="n">
+        <v>30825.07494287452</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0.11501</v>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>{"number": 749, "mean_size": 2.154, "median_size": 1.322, "25th_size": 0.783, "27th_size": 2.437}</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 90.59294712547346}</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>e190</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>e190_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>IMG_3085HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O191" t="n">
+        <v>47.90996</v>
+      </c>
+      <c r="P191" t="n">
+        <v>30828.92821126889</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0.11508</v>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>{"number": 766, "mean_size": 2.129, "median_size": 1.34, "25th_size": 0.784, "27th_size": 2.459}</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 90.84182873110613}</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>e191</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>e191_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>IMG_3085HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O192" t="n">
+        <v>51.93072</v>
+      </c>
+      <c r="P192" t="n">
+        <v>30824.90745126889</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0.11503</v>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>{"number": 758, "mean_size": 2.145, "median_size": 1.36, "25th_size": 0.793, "27th_size": 2.464}</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 90.84182873110613}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>e192</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>e192_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>IMG_3085VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>0.5296255906942929</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O193" t="n">
+        <v>50.94057</v>
+      </c>
+      <c r="P193" t="n">
+        <v>30825.89760126889</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0.11518</v>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>{"number": 767, "mean_size": 2.119, "median_size": 1.317, "25th_size": 0.784, "27th_size": 2.409}</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 90.84182873110613}</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>e193</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>e193_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>IMG_3086.jpeg</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>0.576852193144121</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O194" t="n">
+        <v>221.16498</v>
+      </c>
+      <c r="P194" t="n">
+        <v>30659.27232404515</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0.09673</v>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>{"number": 732, "mean_size": 2.017, "median_size": 1.238, "25th_size": 0.779, "27th_size": 2.345}</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.24269595484284}</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>e194</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>e194_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>IMG_3086HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O195" t="n">
+        <v>227.04521</v>
+      </c>
+      <c r="P195" t="n">
+        <v>30653.28049482924</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0.09685000000000001</v>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>{"number": 724, "mean_size": 2.027, "median_size": 1.218, "25th_size": 0.78, "27th_size": 2.368}</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.35429517075372}</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>e195</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>e195_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>IMG_3086HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O196" t="n">
+        <v>222.49709</v>
+      </c>
+      <c r="P196" t="n">
+        <v>30657.82861482924</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0.09678</v>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>{"number": 728, "mean_size": 2.019, "median_size": 1.243, "25th_size": 0.78, "27th_size": 2.365}</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.35429517075372}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>e196</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>e196_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>IMG_3086VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.5764835974935496</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O197" t="n">
+        <v>227.04046</v>
+      </c>
+      <c r="P197" t="n">
+        <v>30653.28524482924</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0.09676999999999999</v>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>{"number": 730, "mean_size": 2.014, "median_size": 1.238, "25th_size": 0.78, "27th_size": 2.344}</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.35429517075372}</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>e197</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>e197_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>IMG_3088.jpeg</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>0.5457481162540366</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O198" t="n">
+        <v>201.73846</v>
+      </c>
+      <c r="P198" t="n">
+        <v>30682.58368247088</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0.11648</v>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>{"number": 692, "mean_size": 2.183, "median_size": 1.303, "25th_size": 0.802, "27th_size": 2.541}</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 83.35785752910922}</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>e198</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>e198_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>IMG_3088HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>0.5450304987441693</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O199" t="n">
+        <v>196.07447</v>
+      </c>
+      <c r="P199" t="n">
+        <v>30688.02802076759</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0.11647</v>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>{"number": 692, "mean_size": 2.181, "median_size": 1.304, "25th_size": 0.803, "27th_size": 2.46}</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 83.57750923240879}</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>e199</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>e199_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>IMG_3088HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.545389307499103</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O200" t="n">
+        <v>202.49155</v>
+      </c>
+      <c r="P200" t="n">
+        <v>30681.72087499999</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0.11657</v>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>{"number": 683, "mean_size": 2.203, "median_size": 1.308, "25th_size": 0.802, "27th_size": 2.503}</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 83.46757499999998}</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>e200</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>e200_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>IMG_3088VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.5450304987441693</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O201" t="n">
+        <v>198.64632</v>
+      </c>
+      <c r="P201" t="n">
+        <v>30685.45617076759</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0.11647</v>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>{"number": 692, "mean_size": 2.177, "median_size": 1.304, "25th_size": 0.803, "27th_size": 2.474}</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 83.57750923240879}</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>e201</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>e201_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>IMG_3089.jpeg</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.5865877712031559</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O202" t="n">
+        <v>47.03093</v>
+      </c>
+      <c r="P202" t="n">
+        <v>30833.43570671569</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0.11418</v>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>{"number": 792, "mean_size": 2.1, "median_size": 1.23, "25th_size": 0.785, "27th_size": 2.44}</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.21336328430796}</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>e202</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>e202_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>IMG_3089HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O203" t="n">
+        <v>47.021</v>
+      </c>
+      <c r="P203" t="n">
+        <v>30832.85615976331</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0.11428</v>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>{"number": 787, "mean_size": 2.113, "median_size": 1.243, "25th_size": 0.823, "27th_size": 2.465}</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.80284023668635}</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>e203</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>e203_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>IMG_3089HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.5857988165680473</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O204" t="n">
+        <v>48.60587</v>
+      </c>
+      <c r="P204" t="n">
+        <v>30831.62569037138</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0.11433</v>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>{"number": 792, "mean_size": 2.098, "median_size": 1.241, "25th_size": 0.815, "27th_size": 2.427}</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.4484396286093}</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>e204</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>e204_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>IMG_3089VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.5846153846153846</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O205" t="n">
+        <v>51.27737</v>
+      </c>
+      <c r="P205" t="n">
+        <v>30828.59978976331</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0.11424</v>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>{"number": 788, "mean_size": 2.106, "median_size": 1.234, "25th_size": 0.813, "27th_size": 2.434}</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.80284023668635}</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>e205</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>e205_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>IMG_3091.jpeg</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>0.5603726262988177</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O206" t="n">
+        <v>155.6758</v>
+      </c>
+      <c r="P206" t="n">
+        <v>30724.64990482924</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0.09286999999999999</v>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>{"number": 810, "mean_size": 1.872, "median_size": 1.222, "25th_size": 0.78, "27th_size": 2.232}</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.35429517075372}</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>e206</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>e206_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>IMG_3091HorFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.5600143317807238</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O207" t="n">
+        <v>148.28833</v>
+      </c>
+      <c r="P207" t="n">
+        <v>30731.92556134286</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>{"number": 809, "mean_size": 1.874, "median_size": 1.232, "25th_size": 0.78, "27th_size": 2.185}</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.46610865712988}</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>e207</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>e207_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>IMG_3091HorVertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.5596560372626299</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O208" t="n">
+        <v>143.36636</v>
+      </c>
+      <c r="P208" t="n">
+        <v>30736.73550303714</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0.09276</v>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>{"number": 819, "mean_size": 1.853, "median_size": 1.216, "25th_size": 0.781, "27th_size": 2.148}</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.57813696285497}</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>e208</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>e208_6.0x8.0_24019-32____UnitedStoneInternational_Cleveland_OH.jpeg</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>24019-32_LunaPearl_unknown</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>07-09-20_6x8_UnitedStoneInternational_Cleveland_OH</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>IMG_3091VertFlip.jpeg</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.5596560372626299</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>UnitedStoneInternational</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>LunaPearl</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>24019-32</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>07-09-20</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>(None, None)</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>{"height": 6, "width": 8}</t>
+        </is>
+      </c>
+      <c r="O209" t="n">
+        <v>147.14555</v>
+      </c>
+      <c r="P209" t="n">
+        <v>30732.95631303714</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0.0927</v>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>{"number": 816, "mean_size": 1.859, "median_size": 1.214, "25th_size": 0.781, "27th_size": 2.141}</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>{"length": 2, "width": 2, "min_number": 10, "max_number": 13, "total_area": 87.57813696285497}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
